--- a/Status proyecto xtract.xlsx
+++ b/Status proyecto xtract.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Dashboard proyecto xtract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8D0ACF-7D5C-41A0-944B-7898ACCA16F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607F8A0-F8E7-4520-A8F9-4E536F449A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{21D57309-CB86-4AA0-BA0C-48BA2976F6DF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1051">
   <si>
     <t>Status</t>
   </si>
@@ -444,9 +444,6 @@
   </si>
   <si>
     <t>BONAZZOLA MARTA MABEL, BONAZZOLA BEATRIZ ISABEL Y BONAZZOLA STELLA MARIS SOCIEDAD DE HECHO</t>
-  </si>
-  <si>
-    <t>Sin fechas desde Xtract</t>
   </si>
   <si>
     <t>https://platform.xtract.app/invoices/7142503</t>
@@ -585,9 +582,6 @@
     <t>Se deberia imputar contra la primer linea que este abierta, para simiplifcar el tema del mes</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/11118770</t>
   </si>
   <si>
@@ -663,9 +657,6 @@
     <t>COOP TELEFONICA Y OTROS SERV PCOS Y TURISTICOS DE S M A LTDA</t>
   </si>
   <si>
-    <t>TC está null</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/7158014</t>
   </si>
   <si>
@@ -678,9 +669,6 @@
     <t>COOPERATIVA DE OBRAS Y SERVICIOS PUBLICOS SOCIALES Y VIVIENDAS EL BOLSON LIMITADA</t>
   </si>
   <si>
-    <t>¿Pueden enviarme solo una linea de producto por el subtotal 28556,58?</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/11168037</t>
   </si>
   <si>
@@ -780,9 +768,6 @@
     <t>A-0016-00054751</t>
   </si>
   <si>
-    <t>Corregir cantidad</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/7142485</t>
   </si>
   <si>
@@ -936,9 +921,6 @@
     <t>Dismaser S.A.</t>
   </si>
   <si>
-    <t>Tipo de cambio null</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/11124581</t>
   </si>
   <si>
@@ -951,9 +933,6 @@
     <t>DOCUMENT TECHNOLOGIES S.R.L.</t>
   </si>
   <si>
-    <t>No enviar línea en cero, o enviar solo linea de subtotal</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/11175292</t>
   </si>
   <si>
@@ -1020,9 +999,6 @@
     <t>Estudio Durrieu Sociedad Civil</t>
   </si>
   <si>
-    <t>El código de retención ganancias del proveedor se encuentra inactivo - Validar código en producción</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/7142071</t>
   </si>
   <si>
@@ -1095,9 +1071,6 @@
     <t>La OC es la 13775, tiene recibido a la mitad (0.5) - En sandbox figura como ya cargada - Se modifica la planilla en B y C traian otra factura.</t>
   </si>
   <si>
-    <t>Sin imputaciones</t>
-  </si>
-  <si>
     <t>https://platform.xtract.app/invoices/11133107</t>
   </si>
   <si>
@@ -3145,6 +3118,78 @@
   </si>
   <si>
     <t>Ajustar LECTURA - TC</t>
+  </si>
+  <si>
+    <t>No aparece en sandbox para verificar</t>
+  </si>
+  <si>
+    <t>Ejemplo con validación de diferencia montos</t>
+  </si>
+  <si>
+    <t>Pendiente Analisis Xtract</t>
+  </si>
+  <si>
+    <t>Validar lectura recargo en fc</t>
+  </si>
+  <si>
+    <t>TC está null. Enviar por defecto 1 si no se encuentra para que no genere error luego la validación por difererencia de monto</t>
+  </si>
+  <si>
+    <t>La carga está ok pero trae AR - Jurisdicción Facturación (Cpras) en CFE, no corresponde</t>
+  </si>
+  <si>
+    <t>Conversión a usd ok, pero verificar porque trae la cuenta proveedores nacionales en pesos y no en usd</t>
+  </si>
+  <si>
+    <t>La factura es en pesos sin TC y OC en usd. Tecno debe corregir internamente el tema con su oc pero la fc está mal cargada</t>
+  </si>
+  <si>
+    <t>Devolver error cuando la OC es en USD y la factura en es pesos sin TC</t>
+  </si>
+  <si>
+    <t>Validar TECNO en NetSuite</t>
+  </si>
+  <si>
+    <t>Caso Datastar: ok conversión de factura, pero hay que revisar percepción IIBB, si corresponde que los códigos se imputen asi, difieren del productivo.</t>
+  </si>
+  <si>
+    <t>Marca este error en Sandbox, no está para verificar tecno: Los importes son diferentes en más de (0.5), no es posible crear la Factura. Diferencia : (2.46).</t>
+  </si>
+  <si>
+    <t>Tiene cuenta proveedores nac en usd, y la oc / factura es en pesos.</t>
+  </si>
+  <si>
+    <t>Ajustar validación de dif de montos con el cálculp del TC cuando la factura es en ARS</t>
+  </si>
+  <si>
+    <t>Trae codigo de retencion CFE y es de Corrientes el proveedor</t>
+  </si>
+  <si>
+    <t>Está ok la carga, pero trae 3 veces los códigos de CFE y en productivo tenemos solo 2, chequear</t>
+  </si>
+  <si>
+    <t>Listo para procesar.</t>
+  </si>
+  <si>
+    <t>https://platform.xtract.app/invoices/11308661</t>
+  </si>
+  <si>
+    <t>Telefonica</t>
+  </si>
+  <si>
+    <t>Leer interes por mora - Asignar cuenta</t>
+  </si>
+  <si>
+    <t>Validar OC N líneas y factura una línea por el subtotal. Proveedor con el tiilde marcado para respetar la info de la OC</t>
+  </si>
+  <si>
+    <t>https://platform.xtract.app/invoices/11402691</t>
+  </si>
+  <si>
+    <t>COOP</t>
+  </si>
+  <si>
+    <t>Leer recargo e imputar en cuenta</t>
   </si>
 </sst>
 </file>
@@ -3228,12 +3273,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFCFC9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF11734B"/>
@@ -3284,8 +3323,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE5CFF2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3322,6 +3367,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3349,9 +3406,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3365,7 +3422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3389,7 +3446,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3407,7 +3464,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3416,10 +3473,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3428,34 +3482,31 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3470,7 +3521,31 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3808,18 +3883,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63129EFA-36FF-4524-840C-C230FB8C2F97}">
-  <dimension ref="A1:L253"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+      <selection activeCell="A2" sqref="A2:L255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="25.77734375" customWidth="1"/>
+    <col min="1" max="12" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3857,7 +3932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3889,7 +3964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3921,7 +3996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -3951,9 +4026,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
+    <row r="5" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
@@ -3973,15 +4048,13 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
@@ -4039,7 +4112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="172.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>47</v>
       </c>
@@ -4071,7 +4144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -4103,7 +4176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -4135,7 +4208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
@@ -4167,7 +4240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -4197,7 +4270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
@@ -4227,7 +4300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
@@ -4257,7 +4330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +4360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
@@ -4306,12 +4379,16 @@
       <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>1027</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="14" t="s">
+        <v>1028</v>
+      </c>
       <c r="K16" s="20" t="s">
         <v>93</v>
       </c>
@@ -4319,7 +4396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>47</v>
       </c>
@@ -4349,7 +4426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>98</v>
       </c>
@@ -4379,9 +4456,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>29</v>
+    <row r="19" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>104</v>
@@ -4401,9 +4478,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="J19" s="9"/>
       <c r="K19" s="20" t="s">
         <v>108</v>
       </c>
@@ -4411,7 +4486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -4441,7 +4516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
@@ -4471,14 +4546,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -4501,7 +4576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -4529,7 +4604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -4557,9 +4632,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>29</v>
+    <row r="25" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>132</v>
@@ -4579,35 +4654,33 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
@@ -4619,21 +4692,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>17</v>
@@ -4647,27 +4720,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -4677,51 +4750,51 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>29</v>
+    <row r="29" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>1029</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="F29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>1030</v>
+      </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>17</v>
@@ -4735,53 +4808,51 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="186" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>17</v>
@@ -4795,27 +4866,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -4825,21 +4896,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>17</v>
@@ -4853,27 +4924,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -4885,21 +4956,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>17</v>
@@ -4908,34 +4979,34 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="F37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -4945,27 +5016,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="F38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -4975,27 +5046,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="F39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -5005,27 +5076,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="F40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -5035,21 +5106,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>29</v>
+    <row r="41" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>83</v>
@@ -5058,58 +5129,60 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="s">
-        <v>208</v>
+        <v>1031</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>1032</v>
+      </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9" t="s">
-        <v>213</v>
+      <c r="J42" s="14" t="s">
+        <v>1028</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
-        <v>29</v>
+    <row r="43" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>83</v>
@@ -5117,59 +5190,57 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9" t="s">
-        <v>34</v>
+      <c r="J43" s="14" t="s">
+        <v>1028</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>29</v>
+    <row r="44" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>29</v>
+    <row r="45" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>83</v>
@@ -5178,34 +5249,34 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9" t="s">
-        <v>34</v>
+        <v>1031</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -5215,21 +5286,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>17</v>
@@ -5245,21 +5316,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>17</v>
@@ -5273,145 +5344,149 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="I49" s="9"/>
-      <c r="J49" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>1034</v>
+      </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9" t="s">
-        <v>247</v>
+        <v>1035</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>29</v>
+    <row r="51" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40" t="s">
+        <v>1036</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>1037</v>
+      </c>
       <c r="H51" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="9" t="s">
-        <v>247</v>
-      </c>
+      <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9" t="s">
-        <v>34</v>
+      <c r="J52" s="14" t="s">
+        <v>1028</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>17</v>
@@ -5425,21 +5500,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>17</v>
@@ -5453,21 +5528,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>267</v>
+        <v>261</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>73</v>
@@ -5483,21 +5558,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>17</v>
@@ -5511,21 +5586,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
-        <v>272</v>
+    <row r="57" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>17</v>
@@ -5534,28 +5609,28 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>73</v>
@@ -5564,31 +5639,31 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>74</v>
@@ -5601,55 +5676,55 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
-        <v>29</v>
+    <row r="61" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>17</v>
@@ -5658,58 +5733,58 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="9"/>
+      <c r="G62" s="9" t="s">
+        <v>1039</v>
+      </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="9" t="s">
-        <v>304</v>
-      </c>
+      <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>83</v>
@@ -5718,30 +5793,30 @@
       <c r="H63" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9" t="s">
+        <v>1040</v>
+      </c>
       <c r="K63" s="9"/>
       <c r="L63" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>17</v>
@@ -5750,28 +5825,28 @@
       <c r="H64" s="9"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>17</v>
@@ -5780,28 +5855,28 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>17</v>
@@ -5815,21 +5890,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="29" t="s">
-        <v>29</v>
+    <row r="67" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>73</v>
@@ -5837,29 +5912,27 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="9" t="s">
-        <v>327</v>
-      </c>
+      <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>17</v>
@@ -5873,21 +5946,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>17</v>
@@ -5896,28 +5969,28 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
-        <v>29</v>
+    <row r="70" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>340</v>
+        <v>331</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>332</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>83</v>
@@ -5925,35 +5998,35 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="9" t="s">
-        <v>341</v>
+      <c r="J70" s="41" t="s">
+        <v>333</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="31" t="s">
-        <v>226</v>
+    <row r="71" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -5963,53 +6036,51 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9" t="s">
-        <v>352</v>
-      </c>
+      <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="10" t="s">
-        <v>98</v>
+    <row r="73" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>83</v>
@@ -6023,21 +6094,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C74" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>17</v>
@@ -6051,21 +6122,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>17</v>
@@ -6074,28 +6145,28 @@
       <c r="H75" s="9"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>17</v>
@@ -6109,21 +6180,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>17</v>
@@ -6137,21 +6208,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>17</v>
@@ -6165,21 +6236,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>17</v>
@@ -6193,21 +6264,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>17</v>
@@ -6221,27 +6292,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -6251,27 +6322,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -6281,21 +6352,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>17</v>
@@ -6309,61 +6380,55 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="12" t="s">
-        <v>29</v>
+    <row r="84" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="9"/>
-      <c r="H85" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9" t="s">
         <v>34</v>
@@ -6373,27 +6438,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -6403,21 +6468,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C87" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>17</v>
@@ -6431,21 +6496,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C88" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>17</v>
@@ -6459,27 +6524,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="23" t="s">
-        <v>226</v>
+    <row r="89" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>92</v>
@@ -6491,21 +6556,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C90" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>17</v>
@@ -6519,21 +6584,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>17</v>
@@ -6547,21 +6612,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>17</v>
@@ -6575,53 +6640,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="32" t="s">
-        <v>437</v>
+      <c r="G93" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9" t="s">
-        <v>352</v>
-      </c>
+      <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>17</v>
@@ -6635,21 +6698,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>17</v>
@@ -6659,7 +6722,7 @@
         <v>92</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -6667,51 +6730,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="9"/>
+      <c r="G96" s="9" t="s">
+        <v>1041</v>
+      </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="9" t="s">
-        <v>34</v>
+      <c r="J96" s="14" t="s">
+        <v>1028</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>17</v>
@@ -6725,51 +6790,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G98" s="9"/>
+      <c r="G98" s="9" t="s">
+        <v>1042</v>
+      </c>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>17</v>
@@ -6783,21 +6850,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>17</v>
@@ -6811,21 +6878,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>83</v>
@@ -6839,27 +6906,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -6869,21 +6936,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>17</v>
@@ -6897,21 +6964,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>17</v>
@@ -6925,21 +6992,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>17</v>
@@ -6953,21 +7020,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>17</v>
@@ -6981,21 +7048,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>17</v>
@@ -7003,7 +7070,7 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>34</v>
@@ -7013,21 +7080,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>17</v>
@@ -7035,7 +7102,7 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -7043,21 +7110,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>17</v>
@@ -7071,21 +7138,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>17</v>
@@ -7099,21 +7166,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>17</v>
@@ -7127,21 +7194,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>83</v>
@@ -7155,21 +7222,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>17</v>
@@ -7183,55 +7250,55 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="L114" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>17</v>
@@ -7245,21 +7312,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>17</v>
@@ -7273,21 +7340,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>17</v>
@@ -7301,21 +7368,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>17</v>
@@ -7329,21 +7396,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>17</v>
@@ -7357,21 +7424,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="E120" s="30" t="s">
-        <v>552</v>
+        <v>542</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>543</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>83</v>
@@ -7385,21 +7452,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>17</v>
@@ -7413,21 +7480,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>17</v>
@@ -7441,21 +7508,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>17</v>
@@ -7469,21 +7536,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>17</v>
@@ -7497,21 +7564,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>17</v>
@@ -7525,21 +7592,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>17</v>
@@ -7553,21 +7620,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>17</v>
@@ -7581,21 +7648,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>17</v>
@@ -7609,21 +7676,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>17</v>
@@ -7637,21 +7704,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>83</v>
@@ -7665,21 +7732,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>17</v>
@@ -7693,21 +7760,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>17</v>
@@ -7721,21 +7788,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>17</v>
@@ -7749,21 +7816,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>17</v>
@@ -7777,21 +7844,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>17</v>
@@ -7805,21 +7872,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>17</v>
@@ -7833,21 +7900,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>17</v>
@@ -7861,21 +7928,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>17</v>
@@ -7891,21 +7958,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>17</v>
@@ -7919,21 +7986,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>17</v>
@@ -7947,21 +8014,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C141" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>17</v>
@@ -7975,21 +8042,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>17</v>
@@ -8003,21 +8070,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>17</v>
@@ -8031,21 +8098,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>17</v>
@@ -8059,21 +8126,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>17</v>
@@ -8089,21 +8156,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>83</v>
@@ -8117,21 +8184,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>17</v>
@@ -8147,21 +8214,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F148" s="8" t="s">
         <v>17</v>
@@ -8175,21 +8242,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>17</v>
@@ -8203,21 +8270,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C150" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>17</v>
@@ -8231,21 +8298,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>17</v>
@@ -8259,21 +8326,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="29" t="s">
+    <row r="152" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>73</v>
@@ -8287,21 +8354,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>17</v>
@@ -8315,21 +8382,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>17</v>
@@ -8343,21 +8410,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C155" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>17</v>
@@ -8371,21 +8438,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>17</v>
@@ -8399,21 +8466,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>17</v>
@@ -8427,21 +8494,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F158" s="8" t="s">
         <v>17</v>
@@ -8455,21 +8522,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>17</v>
@@ -8483,21 +8550,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="F160" s="8" t="s">
         <v>17</v>
@@ -8511,21 +8578,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>17</v>
@@ -8539,21 +8606,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>17</v>
@@ -8567,21 +8634,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>83</v>
@@ -8595,21 +8662,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="F164" s="8" t="s">
         <v>17</v>
@@ -8623,21 +8690,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="F165" s="8" t="s">
         <v>17</v>
@@ -8651,21 +8718,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>83</v>
@@ -8679,26 +8746,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="E167" s="30" t="s">
-        <v>736</v>
+        <v>726</v>
+      </c>
+      <c r="E167" s="29" t="s">
+        <v>727</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
@@ -8707,26 +8774,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
@@ -8735,26 +8802,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
@@ -8763,27 +8830,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="219" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="28" t="s">
-        <v>272</v>
+    <row r="170" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="27" t="s">
+        <v>267</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
@@ -8793,21 +8860,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F171" s="8" t="s">
         <v>83</v>
@@ -8821,21 +8888,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>17</v>
@@ -8849,28 +8916,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="E173" s="30" t="s">
-        <v>760</v>
+        <v>750</v>
+      </c>
+      <c r="E173" s="29" t="s">
+        <v>751</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G173" s="9"/>
-      <c r="H173" s="33" t="s">
-        <v>761</v>
+      <c r="H173" s="31" t="s">
+        <v>752</v>
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
@@ -8879,21 +8946,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>17</v>
@@ -8909,21 +8976,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F175" s="8" t="s">
         <v>17</v>
@@ -8939,21 +9006,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>17</v>
@@ -8967,21 +9034,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F177" s="8" t="s">
         <v>17</v>
@@ -8997,21 +9064,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>17</v>
@@ -9025,21 +9092,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>83</v>
@@ -9049,27 +9116,27 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
       <c r="K179" s="9" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="L179" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>17</v>
@@ -9083,21 +9150,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="F181" s="8" t="s">
         <v>17</v>
@@ -9113,21 +9180,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="F182" s="8" t="s">
         <v>17</v>
@@ -9141,21 +9208,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F183" s="8" t="s">
         <v>17</v>
@@ -9169,21 +9236,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F184" s="8" t="s">
         <v>17</v>
@@ -9197,21 +9264,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F185" s="8" t="s">
         <v>17</v>
@@ -9225,21 +9292,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="E186" s="34" t="s">
-        <v>813</v>
+        <v>803</v>
+      </c>
+      <c r="E186" s="32" t="s">
+        <v>804</v>
       </c>
       <c r="F186" s="8" t="s">
         <v>17</v>
@@ -9255,21 +9322,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F187" s="8" t="s">
         <v>17</v>
@@ -9283,21 +9350,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F188" s="8" t="s">
         <v>17</v>
@@ -9311,529 +9378,565 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>824</v>
-      </c>
-      <c r="E189" s="35" t="s">
-        <v>825</v>
+        <v>815</v>
+      </c>
+      <c r="E189" s="33" t="s">
+        <v>816</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G189" s="9"/>
       <c r="H189" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="I189" s="9"/>
+        <v>818</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F190" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
-      <c r="I190" s="9"/>
+      <c r="I190" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F191" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
-      <c r="I191" s="9"/>
+      <c r="I191" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
-      <c r="I192" s="9"/>
+      <c r="I192" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>840</v>
-      </c>
-      <c r="E193" s="17" t="s">
-        <v>825</v>
+        <v>831</v>
+      </c>
+      <c r="E193" s="25" t="s">
+        <v>816</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="G193" s="9"/>
       <c r="H193" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="I193" s="9"/>
+        <v>818</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F194" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
-      <c r="I194" s="9"/>
+      <c r="I194" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F195" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
-      <c r="I195" s="9"/>
+      <c r="I195" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J195" s="9"/>
       <c r="K195" s="9"/>
       <c r="L195" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F196" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
-      <c r="I196" s="9"/>
+      <c r="I196" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
-      <c r="I197" s="9"/>
+      <c r="I197" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F198" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
-      <c r="I198" s="9"/>
+      <c r="I198" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F199" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
-      <c r="I199" s="9"/>
+      <c r="I199" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J199" s="9"/>
       <c r="K199" s="9"/>
       <c r="L199" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F200" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
-      <c r="I200" s="9"/>
+      <c r="I200" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F201" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
-      <c r="I201" s="9"/>
+      <c r="I201" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F202" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
-      <c r="I202" s="9"/>
+      <c r="I202" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F203" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
-      <c r="I203" s="9"/>
+      <c r="I203" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J203" s="9"/>
       <c r="K203" s="9"/>
       <c r="L203" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F204" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
-      <c r="I204" s="9"/>
+      <c r="I204" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F205" s="9"/>
-      <c r="G205" s="33" t="s">
-        <v>879</v>
+      <c r="G205" s="8" t="s">
+        <v>870</v>
       </c>
       <c r="H205" s="9"/>
-      <c r="I205" s="9"/>
+      <c r="I205" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J205" s="9"/>
       <c r="K205" s="9"/>
       <c r="L205" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F206" s="9"/>
-      <c r="G206" s="33" t="s">
-        <v>879</v>
+      <c r="G206" s="8" t="s">
+        <v>870</v>
       </c>
       <c r="H206" s="9"/>
-      <c r="I206" s="9"/>
+      <c r="I206" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
       <c r="L206" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
@@ -9847,329 +9950,351 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F208" s="9"/>
-      <c r="G208" s="33" t="s">
-        <v>879</v>
+      <c r="G208" s="8" t="s">
+        <v>870</v>
       </c>
       <c r="H208" s="9"/>
-      <c r="I208" s="9"/>
+      <c r="I208" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
       <c r="L208" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F209" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
-      <c r="I209" s="9"/>
+      <c r="I209" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J209" s="9"/>
       <c r="K209" s="9"/>
       <c r="L209" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F210" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
-      <c r="I210" s="9"/>
+      <c r="I210" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
       <c r="L210" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F211" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
-      <c r="I211" s="9"/>
+      <c r="I211" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
       <c r="L211" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F212" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
-      <c r="I212" s="9"/>
+      <c r="I212" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
       <c r="L212" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F213" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
+      <c r="I213" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J213" s="9"/>
       <c r="K213" s="9"/>
       <c r="L213" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F214" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
+      <c r="I214" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
       <c r="L214" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F215" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
+      <c r="I215" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
       <c r="L215" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F216" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
+      <c r="I216" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J216" s="9"/>
       <c r="K216" s="9"/>
       <c r="L216" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F217" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
+      <c r="I217" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J217" s="9"/>
       <c r="K217" s="9"/>
       <c r="L217" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F218" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
-      <c r="I218" s="9"/>
+      <c r="I218" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>17</v>
@@ -10185,21 +10310,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F220" s="8" t="s">
         <v>17</v>
@@ -10213,21 +10338,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="F221" s="8" t="s">
         <v>17</v>
@@ -10241,21 +10366,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F222" s="8" t="s">
         <v>17</v>
@@ -10269,21 +10394,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F223" s="8" t="s">
         <v>17</v>
@@ -10297,21 +10422,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="F224" s="8" t="s">
         <v>17</v>
@@ -10325,21 +10450,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>17</v>
@@ -10353,21 +10478,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="F226" s="8" t="s">
         <v>17</v>
@@ -10381,21 +10506,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>17</v>
@@ -10409,24 +10534,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="F228" s="33" t="s">
-        <v>959</v>
+        <v>949</v>
+      </c>
+      <c r="F228" s="31" t="s">
+        <v>950</v>
       </c>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
@@ -10437,21 +10562,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>17</v>
@@ -10465,21 +10590,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="F230" s="8" t="s">
         <v>83</v>
@@ -10493,21 +10618,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="F231" s="8" t="s">
         <v>17</v>
@@ -10521,21 +10646,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="F232" s="8" t="s">
         <v>17</v>
@@ -10549,21 +10674,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="F233" s="8" t="s">
         <v>17</v>
@@ -10579,21 +10704,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="F234" s="8" t="s">
         <v>17</v>
@@ -10607,21 +10732,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="F235" s="8" t="s">
         <v>17</v>
@@ -10635,21 +10760,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F236" s="8" t="s">
         <v>83</v>
@@ -10663,21 +10788,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F237" s="8" t="s">
         <v>83</v>
@@ -10691,79 +10816,83 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F238" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G238" s="9"/>
       <c r="H238" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="I238" s="9"/>
+        <v>818</v>
+      </c>
+      <c r="I238" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J238" s="9"/>
       <c r="K238" s="9"/>
       <c r="L238" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F239" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G239" s="9"/>
       <c r="H239" s="9"/>
-      <c r="I239" s="9"/>
+      <c r="I239" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J239" s="9"/>
       <c r="K239" s="9"/>
       <c r="L239" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C240" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F240" s="8" t="s">
         <v>17</v>
@@ -10777,74 +10906,78 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F241" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
-      <c r="I241" s="9"/>
+      <c r="I241" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J241" s="9"/>
       <c r="K241" s="9"/>
       <c r="L241" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F242" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
-      <c r="I242" s="9"/>
+      <c r="I242" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J242" s="9"/>
       <c r="K242" s="9"/>
       <c r="L242" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D243" s="11" t="s">
-        <v>1006</v>
+        <v>996</v>
+      </c>
+      <c r="D243" s="42" t="s">
+        <v>997</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="8" t="s">
@@ -10855,25 +10988,25 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
       <c r="K243" s="9"/>
-      <c r="L243" s="36">
+      <c r="L243" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="F244" s="8" t="s">
         <v>17</v>
@@ -10887,49 +11020,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F245" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
-      <c r="I245" s="9"/>
+      <c r="I245" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="J245" s="9"/>
       <c r="K245" s="9"/>
       <c r="L245" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F246" s="8" t="s">
         <v>17</v>
@@ -10943,21 +11078,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F247" s="8" t="s">
         <v>17</v>
@@ -10971,21 +11106,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F248" s="8" t="s">
         <v>17</v>
@@ -10999,24 +11134,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="27" t="s">
-        <v>272</v>
+    <row r="249" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C249" s="37" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D249" s="37" t="s">
+      <c r="C249" s="35" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D249" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E249" s="37" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F249" s="38" t="s">
-        <v>1025</v>
+      <c r="E249" s="35" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F249" s="36" t="s">
+        <v>1016</v>
       </c>
       <c r="G249" s="9"/>
       <c r="H249" s="9"/>
@@ -11027,105 +11162,105 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="C250" s="37" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D250" s="37" t="s">
-        <v>634</v>
-      </c>
-      <c r="E250" s="37" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F250" s="39" t="s">
-        <v>1027</v>
+        <v>624</v>
+      </c>
+      <c r="C250" s="35" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D250" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="E250" s="35" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F250" s="37" t="s">
+        <v>1018</v>
       </c>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
-      <c r="L250" s="36">
+      <c r="L250" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C251" s="37" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D251" s="37" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E251" s="37" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F251" s="39" t="s">
-        <v>1027</v>
+        <v>413</v>
+      </c>
+      <c r="C251" s="35" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D251" s="35" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E251" s="35" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F251" s="37" t="s">
+        <v>1018</v>
       </c>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
-      <c r="L251" s="36">
+      <c r="L251" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C252" s="37" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D252" s="37" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E252" s="37" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F252" s="39" t="s">
-        <v>1027</v>
+        <v>164</v>
+      </c>
+      <c r="C252" s="35" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D252" s="35" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E252" s="35" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F252" s="37" t="s">
+        <v>1018</v>
       </c>
       <c r="G252" s="9"/>
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
       <c r="J252" s="9"/>
       <c r="K252" s="9"/>
-      <c r="L252" s="36">
+      <c r="L252" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C253" s="40" t="s">
-        <v>1033</v>
+        <v>1023</v>
+      </c>
+      <c r="C253" s="38" t="s">
+        <v>1024</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F253" s="10"/>
       <c r="G253" s="9"/>
@@ -11135,504 +11270,553 @@
         <v>19</v>
       </c>
       <c r="K253" s="9" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="L253" s="10" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="254" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" s="44" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C254" s="45"/>
+      <c r="D254" s="45"/>
+      <c r="E254" s="46" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F254" s="46" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G254" s="45"/>
+      <c r="H254" s="45"/>
+      <c r="I254" s="45"/>
+      <c r="J254" s="45" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K254" s="45"/>
+      <c r="L254" s="45"/>
+    </row>
+    <row r="255" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" s="44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C255" s="45"/>
+      <c r="D255" s="45"/>
+      <c r="E255" s="46" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F255" s="46" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G255" s="45"/>
+      <c r="H255" s="45"/>
+      <c r="I255" s="45"/>
+      <c r="J255" s="45"/>
+      <c r="K255" s="45"/>
+      <c r="L255" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EE9296A0-9464-4154-BA48-CE02F847A810}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{01ABAD77-B14C-47DC-BC50-A698B9A43322}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{98540009-15D6-4CEB-A492-65B48B710ADE}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{7973A440-8993-43C7-B25C-D6F4B4F9F96B}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{2433A84A-DE3A-438D-B09B-26E72821DE10}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{12AF4AA2-C25B-4DAC-AE63-74FD2CCD7A3F}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{0B0D79C8-BE59-4A6A-8A52-4B92488B9DBE}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{7B25F8E4-03E5-48C5-92E1-FC5B390B75F5}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{5B36C50A-E08E-42CC-AE9C-3BFB5B6EC588}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{815F4AD7-C269-41B4-B439-E645BE0631AF}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{ABCDF008-F240-4589-A058-90EF7EAA6E10}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{103DB20E-1EAD-4EF7-8100-6C0F8C29EBE3}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{AF911CCA-7A05-49F9-B5D4-1902EE9F5CB0}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{CABDEECE-F389-4D8F-8AE5-ED555001AA8D}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{FCE51ACB-EFC9-4FAD-80AA-E416EDCABFEA}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{E372BA87-E798-4D71-902D-A7F8F6A0FA9D}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{EA4BD6C7-8DC7-4ACE-BF94-B7E114ED9CAF}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{72806215-F23D-485D-9C12-C2A54E9C3130}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{4F67A675-3EE1-446D-A95F-EA50829431E2}"/>
-    <hyperlink ref="C11" r:id="rId20" xr:uid="{FE89B6E1-1B80-4B9C-B94C-C7ED4E0E232A}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{E6A9BE0F-A495-48AE-85EA-4041834ECE9A}"/>
-    <hyperlink ref="C12" r:id="rId22" xr:uid="{7394CA3B-78E8-4790-9F50-865349626D75}"/>
-    <hyperlink ref="B13" r:id="rId23" xr:uid="{21606732-9FBA-41B4-975E-0A21DE19C4D3}"/>
-    <hyperlink ref="C13" r:id="rId24" xr:uid="{F05C1B74-A727-4D46-92C2-72CAD8B0E687}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{FD3AACE3-4DE5-4FC5-8852-579028C823F7}"/>
-    <hyperlink ref="B15" r:id="rId26" xr:uid="{B3EBC90C-7684-45DC-9EB0-058630799E68}"/>
-    <hyperlink ref="C15" r:id="rId27" display="https://7132834.app.netsuite.com/app/accounting/transactions/vendbill.nl?id=3829348&amp;fromreport=283&amp;summaryurl=%252Fapp%252Freporting%252Freportrunner.nl%253Fviewasreport%253DT%2526specacct%253DAcctPay%2526openonly%253DT%2526acctid%253D%2526cr%253D283%2526critSpec5%253Dtrandoc%25252Ctrandoc%25252Ckentitymain%25252Cx%25252Cx%25252CIN%2526fieldVals5%253D54858" xr:uid="{D636AE9E-3133-4715-ACDE-90948E25C46D}"/>
-    <hyperlink ref="B16" r:id="rId28" xr:uid="{8BDF0959-2FBB-46FE-A37F-0E83AD424561}"/>
-    <hyperlink ref="C16" r:id="rId29" xr:uid="{7587FD46-8F35-4DBB-9565-2A7E1CC5354C}"/>
-    <hyperlink ref="B17" r:id="rId30" xr:uid="{C26B3AAD-AB1E-4EBF-842B-C8150652061E}"/>
-    <hyperlink ref="C17" r:id="rId31" xr:uid="{EDB2CFAE-027D-4C9E-939E-682DD6764F7D}"/>
-    <hyperlink ref="B18" r:id="rId32" xr:uid="{A1D0ACC1-661E-4117-9355-7839659CC743}"/>
-    <hyperlink ref="C18" r:id="rId33" xr:uid="{07AF2A1A-D92F-426C-9536-CD1591B8622B}"/>
-    <hyperlink ref="B19" r:id="rId34" xr:uid="{7A02E6D1-7C8B-4A4B-A6EF-6578054FA483}"/>
-    <hyperlink ref="C19" r:id="rId35" xr:uid="{2614B9AC-3324-45CF-B6C5-5E6F9AF57142}"/>
-    <hyperlink ref="B20" r:id="rId36" xr:uid="{E1CE8E31-473F-46C3-A998-9759703563AB}"/>
-    <hyperlink ref="C20" r:id="rId37" xr:uid="{FFFB3184-0D91-477C-9296-4FCCAB4238D3}"/>
-    <hyperlink ref="B21" r:id="rId38" xr:uid="{315D13EE-3DBC-4D69-AA4B-E925FD6AC8B6}"/>
-    <hyperlink ref="C21" r:id="rId39" xr:uid="{1374ED62-B2DF-46FF-9A4F-B61D50E4FFBE}"/>
-    <hyperlink ref="B22" r:id="rId40" xr:uid="{FF481108-356A-44B9-91B6-1A53CB2EC942}"/>
-    <hyperlink ref="C22" r:id="rId41" xr:uid="{66F78E8A-4252-4925-9D09-E7E1D2F67DCF}"/>
-    <hyperlink ref="B23" r:id="rId42" xr:uid="{0062786C-5E9D-43CB-8C56-4326F640B007}"/>
-    <hyperlink ref="C23" r:id="rId43" xr:uid="{5D10A9C2-699D-4F84-A2DE-79A66A3C7F75}"/>
-    <hyperlink ref="B24" r:id="rId44" xr:uid="{23384114-7834-4B21-9CAC-AAE2147D992C}"/>
-    <hyperlink ref="C24" r:id="rId45" xr:uid="{D1DB1D33-2906-4A84-96F7-CF51681A0F04}"/>
-    <hyperlink ref="B25" r:id="rId46" xr:uid="{4AC6486E-AD92-4E4D-BEE8-C3E5B5C77617}"/>
-    <hyperlink ref="C25" r:id="rId47" xr:uid="{415EC6DD-F7D6-4943-B1DA-01E8DA49BC30}"/>
-    <hyperlink ref="B26" r:id="rId48" xr:uid="{8D00EF76-7381-4A54-91D3-BD756BAD7195}"/>
-    <hyperlink ref="C26" r:id="rId49" xr:uid="{5E31A347-AC67-43B9-B4F7-378C15A0F713}"/>
-    <hyperlink ref="B27" r:id="rId50" xr:uid="{4E5E8587-FADB-4D08-AF3A-564AEEAABEEB}"/>
-    <hyperlink ref="C27" r:id="rId51" xr:uid="{40277B4A-77CD-48CA-A5F5-C4A1C18A0757}"/>
-    <hyperlink ref="B28" r:id="rId52" xr:uid="{7C564D43-254F-4A53-AA19-2B44C0B6D8D0}"/>
-    <hyperlink ref="C28" r:id="rId53" xr:uid="{7F483666-618D-4BFA-A3EC-2CD0E6491FC3}"/>
-    <hyperlink ref="B29" r:id="rId54" xr:uid="{AE874DF1-FC01-4B07-B712-94E784089436}"/>
-    <hyperlink ref="C29" r:id="rId55" xr:uid="{830E4DFE-3A97-4430-BFA0-08E4BB10DC54}"/>
-    <hyperlink ref="B30" r:id="rId56" xr:uid="{1BF2B66C-5D1E-41A7-80D0-6640DA3167F7}"/>
-    <hyperlink ref="C30" r:id="rId57" xr:uid="{7C073C8E-BFDA-484C-B282-B89E17A8A9BE}"/>
-    <hyperlink ref="B31" r:id="rId58" xr:uid="{61086D79-E288-48FF-BA78-2608952CDC1A}"/>
-    <hyperlink ref="C31" r:id="rId59" xr:uid="{B66B4254-8EEC-4435-88B8-266E5C7A5D7E}"/>
-    <hyperlink ref="B32" r:id="rId60" xr:uid="{9E446FB3-F9EE-4D8D-8C81-920C2E9331C1}"/>
-    <hyperlink ref="B33" r:id="rId61" xr:uid="{80F1E126-D203-4CE8-8BA4-C3DC8BE8CDEC}"/>
-    <hyperlink ref="C33" r:id="rId62" xr:uid="{6D30CE64-A4A1-4EC8-96ED-D04070ED925D}"/>
-    <hyperlink ref="B34" r:id="rId63" xr:uid="{43422484-7C73-444F-8C98-9942A3BF2B40}"/>
-    <hyperlink ref="C34" r:id="rId64" xr:uid="{72F49A92-42EB-4E4D-A3DE-67C1C05C7B9B}"/>
-    <hyperlink ref="B35" r:id="rId65" xr:uid="{611C601B-06FF-43EB-8505-FC3824C8F9CC}"/>
-    <hyperlink ref="C35" r:id="rId66" xr:uid="{D5C058AB-A42C-449A-B44A-F5EB0C77954A}"/>
-    <hyperlink ref="B36" r:id="rId67" xr:uid="{38E8392B-3F52-4681-B95B-172A62D9A94F}"/>
-    <hyperlink ref="C36" r:id="rId68" xr:uid="{0F3F7394-FD56-4FE4-A471-295185679910}"/>
-    <hyperlink ref="B37" r:id="rId69" xr:uid="{5CDD9C58-F6FF-42F8-9064-F735940334A0}"/>
-    <hyperlink ref="C37" r:id="rId70" xr:uid="{C54EA8C8-953F-491F-9012-B85810A490AC}"/>
-    <hyperlink ref="B38" r:id="rId71" xr:uid="{2FDE56BC-CF42-4100-A6CB-D670D40EE38A}"/>
-    <hyperlink ref="C38" r:id="rId72" xr:uid="{29899CEE-B25D-4C4A-9510-CCD895B92633}"/>
-    <hyperlink ref="B39" r:id="rId73" xr:uid="{4498F758-76BC-46E0-B58D-56D8F0B04031}"/>
-    <hyperlink ref="C39" r:id="rId74" xr:uid="{0053DE19-0BAD-4C5A-80C9-0C4CC82464B1}"/>
-    <hyperlink ref="B40" r:id="rId75" xr:uid="{DA81E2A4-6FE5-4A46-8976-6A35D296228E}"/>
-    <hyperlink ref="C40" r:id="rId76" xr:uid="{77063D95-58EF-4BB9-865A-DA5386AAD583}"/>
-    <hyperlink ref="B41" r:id="rId77" xr:uid="{812F0723-2D27-45F8-A6DA-D9AD698286AC}"/>
-    <hyperlink ref="C41" r:id="rId78" xr:uid="{3B2470DB-304E-4DB8-B35A-2A742D60AD81}"/>
-    <hyperlink ref="B42" r:id="rId79" xr:uid="{7E1569C7-E742-4C6D-9788-C603DB26A89D}"/>
-    <hyperlink ref="C42" r:id="rId80" xr:uid="{ECF0FDB0-8544-4F6C-9299-74C9ACC90EE6}"/>
-    <hyperlink ref="B43" r:id="rId81" xr:uid="{2F100698-B0AA-45B4-A68B-A62BB7C30DC6}"/>
-    <hyperlink ref="C43" r:id="rId82" xr:uid="{BC02580A-E2D7-4058-AFA7-FE428C098932}"/>
-    <hyperlink ref="B44" r:id="rId83" xr:uid="{00FD5EFC-FD51-4180-A37C-6EBAC535FFE8}"/>
-    <hyperlink ref="C44" r:id="rId84" xr:uid="{753CAAB0-1CCE-4133-A6B0-F23C917264EE}"/>
-    <hyperlink ref="B45" r:id="rId85" xr:uid="{6CA23774-442F-4D59-A0AC-67788BBFA49B}"/>
-    <hyperlink ref="C45" r:id="rId86" xr:uid="{56451020-8AFF-4DA3-A9C7-BF2E9F0847C1}"/>
-    <hyperlink ref="B46" r:id="rId87" xr:uid="{726D7173-71E2-49AB-BFA0-0AFD6B8A22B5}"/>
-    <hyperlink ref="C46" r:id="rId88" xr:uid="{03D1F061-A8DA-46B5-806F-20EDFE513548}"/>
-    <hyperlink ref="B47" r:id="rId89" xr:uid="{4868955F-F4E2-4CAE-A99C-E5A132777FEB}"/>
-    <hyperlink ref="C47" r:id="rId90" xr:uid="{7BED90C0-E93E-42AD-9FD1-2067E4C212C9}"/>
-    <hyperlink ref="B48" r:id="rId91" xr:uid="{8913E757-085A-49A2-B2CF-D17BCDDA81A7}"/>
-    <hyperlink ref="C48" r:id="rId92" xr:uid="{E3A55624-89BD-4264-A12C-BF5F25048646}"/>
-    <hyperlink ref="B49" r:id="rId93" xr:uid="{2EA4CF29-8A5C-44AE-9EA2-D70E7C818C03}"/>
-    <hyperlink ref="C49" r:id="rId94" xr:uid="{484113FD-BD5F-42BE-893C-A0DE427B080C}"/>
-    <hyperlink ref="B50" r:id="rId95" xr:uid="{D78DF2DD-087D-4A4F-A3FA-6CB102D3A381}"/>
-    <hyperlink ref="C50" r:id="rId96" xr:uid="{7A9CB5BC-CC59-4F25-A713-3427408D9A83}"/>
-    <hyperlink ref="B51" r:id="rId97" xr:uid="{B441C14F-B943-4286-87CF-CF62BBFAFF4B}"/>
-    <hyperlink ref="C51" r:id="rId98" xr:uid="{B77FECA5-4E46-4582-9EFA-BCDA53E218B0}"/>
-    <hyperlink ref="B52" r:id="rId99" xr:uid="{F0522E48-2313-4F95-9FB2-F132A920210F}"/>
-    <hyperlink ref="C52" r:id="rId100" xr:uid="{1135E55B-764A-441D-9F5B-ECB0F7C6825A}"/>
-    <hyperlink ref="B53" r:id="rId101" xr:uid="{D9F31298-A7FD-42F3-92C5-BFE3445A4F42}"/>
-    <hyperlink ref="C53" r:id="rId102" xr:uid="{445C9EC4-2224-4332-AB9A-ACEE3C8BBC87}"/>
-    <hyperlink ref="B54" r:id="rId103" xr:uid="{D2301F98-1AAE-4922-8C3E-45A99304712D}"/>
-    <hyperlink ref="C54" r:id="rId104" xr:uid="{F44C79F4-3409-44C7-AF23-2952AD2C03F2}"/>
-    <hyperlink ref="B55" r:id="rId105" xr:uid="{BBA652D7-600F-4069-9ED7-D2D4A2E53785}"/>
-    <hyperlink ref="C55" r:id="rId106" xr:uid="{BB51550D-C13C-44D2-A0DD-3D8D6398F030}"/>
-    <hyperlink ref="B56" r:id="rId107" xr:uid="{0A55FD6E-4AC0-478E-B327-5A175C51C574}"/>
-    <hyperlink ref="C56" r:id="rId108" xr:uid="{C67285BC-EC48-4154-9144-7FCA96288979}"/>
-    <hyperlink ref="B57" r:id="rId109" xr:uid="{F2CA6CC8-16EA-42B5-A016-BEB40E499D45}"/>
-    <hyperlink ref="C57" r:id="rId110" xr:uid="{1A6A5CDF-E586-4FFA-A8DC-1122CD9E874D}"/>
-    <hyperlink ref="B58" r:id="rId111" xr:uid="{308FEF49-96E5-4889-8BB7-CE8ABAC2852B}"/>
-    <hyperlink ref="C58" r:id="rId112" xr:uid="{F2CC4AEA-C679-4E84-A3DC-8902DFE1A451}"/>
-    <hyperlink ref="B59" r:id="rId113" xr:uid="{E761567C-5067-40D9-8F69-87D976E1CB67}"/>
-    <hyperlink ref="C59" r:id="rId114" xr:uid="{DF9132B7-5872-4CF9-9B73-1DB6F345A0C4}"/>
-    <hyperlink ref="B60" r:id="rId115" xr:uid="{298593B2-BB7D-42E3-A530-11D85F7F9D64}"/>
-    <hyperlink ref="C60" r:id="rId116" xr:uid="{B3753A3E-E287-4B1B-A6EB-9C2F71665B98}"/>
-    <hyperlink ref="B61" r:id="rId117" xr:uid="{709D8F32-5BBD-40CC-A751-32FAE22359D7}"/>
-    <hyperlink ref="C61" r:id="rId118" xr:uid="{7B3EBE4D-1FDB-459F-B35E-FFCDA8B6B2B2}"/>
-    <hyperlink ref="B62" r:id="rId119" xr:uid="{1A19D467-75E0-4073-B689-A75B981B3AE1}"/>
-    <hyperlink ref="C62" r:id="rId120" xr:uid="{F4D77E49-6E53-48E3-B45C-1888539912FD}"/>
-    <hyperlink ref="B63" r:id="rId121" xr:uid="{DD5BA06B-B2F3-4CAB-913C-63CCD9010F1E}"/>
-    <hyperlink ref="C63" r:id="rId122" xr:uid="{79AFFC92-E9FE-4971-9374-C0C59D29FBF6}"/>
-    <hyperlink ref="B64" r:id="rId123" xr:uid="{A71CF498-81DC-4315-A1BE-BB2A2E39D530}"/>
-    <hyperlink ref="C64" r:id="rId124" xr:uid="{95328E1D-B72A-41D6-A1A7-B1689076E9AF}"/>
-    <hyperlink ref="B65" r:id="rId125" xr:uid="{42691C5A-CC07-4B61-BE98-B3CE6BE46814}"/>
-    <hyperlink ref="C65" r:id="rId126" xr:uid="{9B6FCB74-79E5-4189-87E9-4EB9601957EB}"/>
-    <hyperlink ref="B66" r:id="rId127" xr:uid="{086D13EA-B2C7-4682-BF4E-129FA46DAAAA}"/>
-    <hyperlink ref="C66" r:id="rId128" xr:uid="{EB510CDB-0570-4089-9259-A3877739310A}"/>
-    <hyperlink ref="B67" r:id="rId129" xr:uid="{9CBC009B-3EBE-4E72-B7E2-B7F5E729B853}"/>
-    <hyperlink ref="C67" r:id="rId130" xr:uid="{C5E5546C-AF9E-48A8-BF70-E709B6162C47}"/>
-    <hyperlink ref="B68" r:id="rId131" xr:uid="{CA5579FB-6660-4BA6-8556-0D558D63E185}"/>
-    <hyperlink ref="C68" r:id="rId132" xr:uid="{D9295F8A-D52B-4978-9902-A2DC55A91DF3}"/>
-    <hyperlink ref="B69" r:id="rId133" xr:uid="{82C4D128-7B11-4739-9FF6-E19FCCB9B321}"/>
-    <hyperlink ref="C69" r:id="rId134" xr:uid="{9EBE428A-D1DC-438A-9AF4-ED1E617028DF}"/>
-    <hyperlink ref="B70" r:id="rId135" xr:uid="{787A1B25-BC83-428C-A447-A129C654A271}"/>
-    <hyperlink ref="C70" r:id="rId136" xr:uid="{BBFC4898-033F-4B0C-B1A3-E9B2E0CC03F8}"/>
-    <hyperlink ref="B71" r:id="rId137" xr:uid="{6FFBB595-7C4B-4A25-8E13-11B227FA6A05}"/>
-    <hyperlink ref="C71" r:id="rId138" xr:uid="{799C0773-EDF4-4278-8DF0-32AEA61FFAAE}"/>
-    <hyperlink ref="B72" r:id="rId139" xr:uid="{9E2CB658-EFF3-4A92-B0D8-75FBC84E0186}"/>
-    <hyperlink ref="C72" r:id="rId140" xr:uid="{EA657A39-879B-4E19-BA78-88C89AB72847}"/>
-    <hyperlink ref="B73" r:id="rId141" xr:uid="{8AC2F29D-C494-4BCD-ADD3-6F2CAA1812EC}"/>
-    <hyperlink ref="C73" r:id="rId142" xr:uid="{48F9A3E4-2A39-4783-ABCD-D22C1816046D}"/>
-    <hyperlink ref="B74" r:id="rId143" xr:uid="{E66B1092-7D60-4CC0-99DE-E60AC54564AC}"/>
-    <hyperlink ref="B75" r:id="rId144" xr:uid="{82B190F2-3CEE-40ED-9576-B2552BFDD99D}"/>
-    <hyperlink ref="C75" r:id="rId145" xr:uid="{2934C6AF-C7A0-4CE1-8029-E707EE8948A5}"/>
-    <hyperlink ref="B76" r:id="rId146" xr:uid="{3E203B2E-099E-4EF4-971B-241640C19DF2}"/>
-    <hyperlink ref="C76" r:id="rId147" xr:uid="{7BF92EA1-5B7B-4447-AE8D-8567126C2BC1}"/>
-    <hyperlink ref="B77" r:id="rId148" xr:uid="{CC53775D-7979-4807-8FFF-AEB998B8247D}"/>
-    <hyperlink ref="C77" r:id="rId149" xr:uid="{ADC3F1C7-D528-4303-A5AE-DB04C225B6CE}"/>
-    <hyperlink ref="B78" r:id="rId150" xr:uid="{090D976E-C88A-4574-9554-454255113381}"/>
-    <hyperlink ref="C78" r:id="rId151" xr:uid="{87ED4321-D5F3-4CDC-BAAF-872F334A8C71}"/>
-    <hyperlink ref="B79" r:id="rId152" xr:uid="{3EFB2048-1807-4754-ABDF-36C5EDA9B2E4}"/>
-    <hyperlink ref="C79" r:id="rId153" xr:uid="{A70493EA-57C6-4FE9-B061-34CD74EC557E}"/>
-    <hyperlink ref="B80" r:id="rId154" xr:uid="{6CFB0D56-6486-408B-83A0-858C47B5C3CB}"/>
-    <hyperlink ref="C80" r:id="rId155" xr:uid="{7E315B6B-8ADD-4852-8E13-F18BEE0E9BE6}"/>
-    <hyperlink ref="B81" r:id="rId156" xr:uid="{3184680B-A383-4EB7-9F79-9D2378D9B361}"/>
-    <hyperlink ref="C81" r:id="rId157" xr:uid="{4B7D1A61-6E1B-485F-B009-42CCDE8EF1FB}"/>
-    <hyperlink ref="B82" r:id="rId158" xr:uid="{C0759D3A-F714-4F19-B276-099AFDD50A07}"/>
-    <hyperlink ref="C82" r:id="rId159" xr:uid="{1044DB53-772C-4AA2-AD43-AC127990F167}"/>
-    <hyperlink ref="B83" r:id="rId160" xr:uid="{DEB9066C-0305-40FD-AF3C-9F7C605F4592}"/>
-    <hyperlink ref="C83" r:id="rId161" xr:uid="{D877B400-7DDE-4A86-8774-E07217D035D2}"/>
-    <hyperlink ref="B84" r:id="rId162" xr:uid="{BB75FEF7-EB4D-4753-9A8E-66313D5DA7CB}"/>
-    <hyperlink ref="C84" r:id="rId163" display="https://7132834.app.netsuite.com/app/accounting/transactions/vendbill.nl?id=3821340&amp;fromreport=283&amp;summaryurl=%252Fapp%252Freporting%252Freportrunner.nl%253Fviewasreport%253DT%2526specacct%253DAcctPay%2526openonly%253DT%2526acctid%253D%2526cr%253D283%2526critSpec5%253Dtrandoc%25252Ctrandoc%25252Ckentitymain%25252Cx%25252Cx%25252CIN%2526fieldVals5%253D69993" xr:uid="{104EBA05-A63F-4213-B432-5F8155C593FE}"/>
-    <hyperlink ref="B85" r:id="rId164" xr:uid="{B1C7D043-924F-4DFA-862C-D3484C0F83C0}"/>
-    <hyperlink ref="C85" r:id="rId165" xr:uid="{464221D7-0B30-4640-9584-A96DCD8E3BA2}"/>
-    <hyperlink ref="B86" r:id="rId166" xr:uid="{8E2AD5E9-7805-4235-9BED-D08E55CBC8AA}"/>
-    <hyperlink ref="C86" r:id="rId167" xr:uid="{F391D852-C626-45A5-BF43-CB03638F5D64}"/>
-    <hyperlink ref="B87" r:id="rId168" xr:uid="{EECC9DAC-CC24-410F-BC32-3FC3FE135BB4}"/>
-    <hyperlink ref="B88" r:id="rId169" xr:uid="{048009C3-560B-48A1-BBEE-33E73CE1BC46}"/>
-    <hyperlink ref="B89" r:id="rId170" xr:uid="{972D5C62-10F5-49EC-AEB1-A84552A37AEE}"/>
-    <hyperlink ref="C89" r:id="rId171" xr:uid="{221E5424-767D-4C85-A0BB-2B5FFA400441}"/>
-    <hyperlink ref="B90" r:id="rId172" xr:uid="{ED85D110-F103-4BC1-8759-0D4F54114BA5}"/>
-    <hyperlink ref="B91" r:id="rId173" xr:uid="{804BA9AE-E433-4268-94ED-7332AC78323B}"/>
-    <hyperlink ref="C91" r:id="rId174" xr:uid="{819B5772-8E84-424A-9B26-E0FAE0D34F68}"/>
-    <hyperlink ref="B92" r:id="rId175" xr:uid="{C087B56A-34AB-4AC2-93F9-71ED7C60AB5A}"/>
-    <hyperlink ref="C92" r:id="rId176" xr:uid="{E70C07B6-B67A-4EE0-9151-9EB7E6895CE7}"/>
-    <hyperlink ref="B93" r:id="rId177" xr:uid="{F3798F2A-E378-4524-8FD9-BB33FE59356B}"/>
-    <hyperlink ref="C93" r:id="rId178" xr:uid="{CB1F10D2-6CC3-4691-A04F-D4D5E7217361}"/>
-    <hyperlink ref="B94" r:id="rId179" xr:uid="{D0325A88-C2DA-482A-8F7E-C26E405EEFA0}"/>
-    <hyperlink ref="C94" r:id="rId180" xr:uid="{59343583-8ACC-4CF8-8281-14BF52048CDF}"/>
-    <hyperlink ref="B95" r:id="rId181" xr:uid="{DCD5C42B-DF3F-45A9-AD4B-754DBCD360AD}"/>
-    <hyperlink ref="C95" r:id="rId182" xr:uid="{447DDE31-DB40-4891-834A-CDEE128844EC}"/>
-    <hyperlink ref="B96" r:id="rId183" xr:uid="{ED062BD5-5DBE-4BF6-ACC7-CA42D05B81D8}"/>
-    <hyperlink ref="C96" r:id="rId184" xr:uid="{39ABD139-C73F-4F5B-B6CE-6E844F5ED747}"/>
-    <hyperlink ref="B97" r:id="rId185" xr:uid="{097DAEFD-CB00-4629-BDC2-28E60F196103}"/>
-    <hyperlink ref="C97" r:id="rId186" xr:uid="{676DB90E-A906-479B-9B70-3CC7149F323D}"/>
-    <hyperlink ref="B98" r:id="rId187" xr:uid="{4EEB065A-6E03-4AFA-A93E-AD0C9D0FFE81}"/>
-    <hyperlink ref="C98" r:id="rId188" xr:uid="{6C164EE9-DEEA-4320-A37C-D4148E3B86FF}"/>
-    <hyperlink ref="B99" r:id="rId189" xr:uid="{4EC0BABE-0B26-4E68-B2DA-23DDF7AC8E44}"/>
-    <hyperlink ref="C99" r:id="rId190" xr:uid="{E23C5EDF-4AB0-4225-8FAF-0C31DF2D5410}"/>
-    <hyperlink ref="B100" r:id="rId191" xr:uid="{60390303-57D3-4CFE-BF48-0562C945D2E0}"/>
-    <hyperlink ref="C100" r:id="rId192" xr:uid="{B984CD1B-7A1D-448B-9C62-DDAEC40AF456}"/>
-    <hyperlink ref="B101" r:id="rId193" xr:uid="{E8E97476-9403-4AB7-BEB8-6B643560BCE4}"/>
-    <hyperlink ref="C101" r:id="rId194" xr:uid="{0AA73525-1163-4F4F-8960-EF0AC0FB481F}"/>
-    <hyperlink ref="B102" r:id="rId195" xr:uid="{4437A4C8-D45D-4477-B8F0-1AAD3EC931CA}"/>
-    <hyperlink ref="C102" r:id="rId196" xr:uid="{D498E1BC-F16D-4E7A-A154-DCDC01656BAE}"/>
-    <hyperlink ref="B103" r:id="rId197" xr:uid="{E240BDF8-7722-4057-B29F-7CC41221C4D4}"/>
-    <hyperlink ref="C103" r:id="rId198" xr:uid="{35B7E3EF-71C7-4FA9-B838-22D931D458E6}"/>
-    <hyperlink ref="B104" r:id="rId199" xr:uid="{D3972EA9-4CE1-49B7-B0DB-953A78C2CE53}"/>
-    <hyperlink ref="C104" r:id="rId200" xr:uid="{46DBBD3A-4BFF-4F78-8FE2-C1EDB6E51B01}"/>
-    <hyperlink ref="B105" r:id="rId201" xr:uid="{B35BDAD1-B240-467E-949D-4DC5CD911A83}"/>
-    <hyperlink ref="C105" r:id="rId202" xr:uid="{F652EB6A-F081-4FDF-AF0C-40267AD80BBB}"/>
-    <hyperlink ref="B106" r:id="rId203" xr:uid="{AFDCB132-79BC-44A2-8475-A38D28BAE2EF}"/>
-    <hyperlink ref="C106" r:id="rId204" xr:uid="{7861E5F5-4CCD-4B32-A7C9-B63714AB0B75}"/>
-    <hyperlink ref="B107" r:id="rId205" xr:uid="{1DB0A926-0D46-4951-8F6C-26C49575781E}"/>
-    <hyperlink ref="C107" r:id="rId206" xr:uid="{081EF60F-6AE4-4009-915C-39DBE2E91741}"/>
-    <hyperlink ref="B108" r:id="rId207" xr:uid="{54DFAE8C-EEC9-4514-9AE6-34BF76F89207}"/>
-    <hyperlink ref="C108" r:id="rId208" xr:uid="{45D82343-F445-4355-AB0B-CC63D48F5C18}"/>
-    <hyperlink ref="B109" r:id="rId209" xr:uid="{1D9D5880-D67B-4E70-832C-05D385C61216}"/>
-    <hyperlink ref="C109" r:id="rId210" xr:uid="{364F374B-2333-4548-8846-23944C24272F}"/>
-    <hyperlink ref="B110" r:id="rId211" xr:uid="{19F90226-A613-410D-A2CD-B16E596CC6CC}"/>
-    <hyperlink ref="C110" r:id="rId212" xr:uid="{A03787FD-3B21-4908-BEC0-3CC25B3D3CD9}"/>
-    <hyperlink ref="B111" r:id="rId213" xr:uid="{B2896DAE-76E7-4286-8072-80863197CC69}"/>
-    <hyperlink ref="C111" r:id="rId214" xr:uid="{F6818C86-F234-487F-8861-AD2D37FD7DC3}"/>
-    <hyperlink ref="B112" r:id="rId215" xr:uid="{95E92C14-4566-4473-93EF-83CB7F6D268D}"/>
-    <hyperlink ref="C112" r:id="rId216" xr:uid="{6DFCD0B7-F2CE-4487-BDA6-ACB52EEAA30F}"/>
-    <hyperlink ref="B113" r:id="rId217" xr:uid="{575208C0-A5B5-4890-BEA8-6A64063A99E9}"/>
-    <hyperlink ref="C113" r:id="rId218" xr:uid="{1ACD8564-7890-42FB-8CFB-3F4F048B75DD}"/>
-    <hyperlink ref="B114" r:id="rId219" xr:uid="{40D8B734-34F0-4A4D-A5DB-1C3DA9D425FB}"/>
-    <hyperlink ref="C114" r:id="rId220" xr:uid="{214C11A2-8B4A-4959-BC3C-1C4A9BA8C4FB}"/>
-    <hyperlink ref="B115" r:id="rId221" xr:uid="{AA80CDA3-348D-4615-AC03-C784573679D8}"/>
-    <hyperlink ref="C115" r:id="rId222" xr:uid="{57335D68-5F1D-4D41-92D6-F6E01C5A7C16}"/>
-    <hyperlink ref="B116" r:id="rId223" xr:uid="{DFF13F16-E975-403B-B234-CA7A5DD8A5C9}"/>
-    <hyperlink ref="C116" r:id="rId224" xr:uid="{63C8CE52-B531-4EC4-8E0D-54339B075AE7}"/>
-    <hyperlink ref="B117" r:id="rId225" xr:uid="{0865FAD4-99EC-4D1E-849B-4639DEC7CEB0}"/>
-    <hyperlink ref="C117" r:id="rId226" xr:uid="{BFD0D0E7-729E-4907-9F01-AB6FBE86F6E4}"/>
-    <hyperlink ref="B118" r:id="rId227" xr:uid="{3F928120-19AB-41DA-BEFA-E8A0DB112A29}"/>
-    <hyperlink ref="C118" r:id="rId228" xr:uid="{9911BA4D-BE41-4F30-90B6-1A8C50240932}"/>
-    <hyperlink ref="B119" r:id="rId229" xr:uid="{D088905C-C8DD-421A-B207-A895F9BD1BC3}"/>
-    <hyperlink ref="C119" r:id="rId230" xr:uid="{568DBF16-FECC-4F4D-9B21-C4D081F0B2E9}"/>
-    <hyperlink ref="B120" r:id="rId231" xr:uid="{C829D498-AD71-489A-9973-CD7AFA6A79D1}"/>
-    <hyperlink ref="C120" r:id="rId232" xr:uid="{B020FBF4-D988-44CE-83FC-A200E980B8C0}"/>
-    <hyperlink ref="B121" r:id="rId233" xr:uid="{CB1FEF83-520E-4772-9EAF-AFB6A98B205F}"/>
-    <hyperlink ref="C121" r:id="rId234" xr:uid="{0AE35E0F-A146-4FA7-BD0F-A225C41D21AF}"/>
-    <hyperlink ref="B122" r:id="rId235" xr:uid="{5D885093-CF57-4B4C-8F80-8D17FD6ECA92}"/>
-    <hyperlink ref="C122" r:id="rId236" xr:uid="{14EB2AFC-0C18-4168-AC8E-26E8B4EC6D64}"/>
-    <hyperlink ref="B123" r:id="rId237" xr:uid="{06ED6273-4D6A-4172-808D-E27C63DC4962}"/>
-    <hyperlink ref="C123" r:id="rId238" xr:uid="{AD5DA1EE-9DC8-45AE-AE5E-C12DE51B7172}"/>
-    <hyperlink ref="B124" r:id="rId239" xr:uid="{F9AEBCEB-855E-4D6A-882A-8FA06CE6BFB4}"/>
-    <hyperlink ref="C124" r:id="rId240" xr:uid="{A58BD2B1-B8D5-46FF-B090-2DAA6D920E82}"/>
-    <hyperlink ref="B125" r:id="rId241" xr:uid="{400BA478-3AD2-4140-A2F2-8239D3D89D14}"/>
-    <hyperlink ref="C125" r:id="rId242" xr:uid="{99F648A8-857E-452D-8233-6A2D7AF4083C}"/>
-    <hyperlink ref="B126" r:id="rId243" xr:uid="{76D1E2D8-0220-4D73-A718-FC926F815781}"/>
-    <hyperlink ref="C126" r:id="rId244" xr:uid="{3B49726D-8CF4-49AA-A320-FFCED28CE563}"/>
-    <hyperlink ref="B127" r:id="rId245" xr:uid="{4BC13DC3-021C-42EC-B591-F07479FB70C2}"/>
-    <hyperlink ref="C127" r:id="rId246" xr:uid="{1FF1AE39-6AFC-4862-AEBE-990ACEDA9F2A}"/>
-    <hyperlink ref="B128" r:id="rId247" xr:uid="{10A5ACDD-59E7-400F-A001-C52FA6F6A43C}"/>
-    <hyperlink ref="C128" r:id="rId248" xr:uid="{2A0C0DBF-8987-43CD-9C45-E921403A4456}"/>
-    <hyperlink ref="B129" r:id="rId249" xr:uid="{E20C9840-47EC-43FF-B63C-A66B399CF89F}"/>
-    <hyperlink ref="C129" r:id="rId250" xr:uid="{528C4BD2-5A84-4754-942F-5FEDF10A7F05}"/>
-    <hyperlink ref="B130" r:id="rId251" xr:uid="{0C382891-21CD-4DF3-98B2-91C2F4CCD8E4}"/>
-    <hyperlink ref="C130" r:id="rId252" xr:uid="{6C0BB897-522C-4E5C-8D1D-DD6DAF02ACF0}"/>
-    <hyperlink ref="B131" r:id="rId253" xr:uid="{78F4CDEC-49F3-4ECF-8450-340049D728AF}"/>
-    <hyperlink ref="C131" r:id="rId254" xr:uid="{76548A5C-30CB-40C1-92CA-AE934633F6D7}"/>
-    <hyperlink ref="B132" r:id="rId255" xr:uid="{A73AFED3-8458-442A-A847-95CF87A00633}"/>
-    <hyperlink ref="C132" r:id="rId256" xr:uid="{391D910F-FC22-4281-BCDC-A667C7D6BF41}"/>
-    <hyperlink ref="B133" r:id="rId257" xr:uid="{DAED5498-C86A-4CFA-A197-3DE946E86AD9}"/>
-    <hyperlink ref="C133" r:id="rId258" xr:uid="{2D1E7C01-FFC2-4294-8004-BDA628BF4FAB}"/>
-    <hyperlink ref="B134" r:id="rId259" xr:uid="{93D2EEB3-E822-40EF-8F7F-5620C0175C1E}"/>
-    <hyperlink ref="C134" r:id="rId260" xr:uid="{C958BADB-1863-4396-BB95-CC415A0F1196}"/>
-    <hyperlink ref="B135" r:id="rId261" xr:uid="{B861866B-549D-4B16-A9F6-C33CDDDE85CC}"/>
-    <hyperlink ref="C135" r:id="rId262" xr:uid="{065E9C61-E856-4527-B8A0-8296B934E16B}"/>
-    <hyperlink ref="B136" r:id="rId263" xr:uid="{D1B445F9-E987-485C-BB87-0EE55313227B}"/>
-    <hyperlink ref="C136" r:id="rId264" xr:uid="{7A37FCC5-95CB-4240-AAFC-A3385847656B}"/>
-    <hyperlink ref="B137" r:id="rId265" xr:uid="{3DA5CCBD-5D03-44EA-92DC-67657EEF28B4}"/>
-    <hyperlink ref="C137" r:id="rId266" xr:uid="{F04C89DF-BFD2-4C9B-A395-0C107A05BD6B}"/>
-    <hyperlink ref="B138" r:id="rId267" xr:uid="{45FB9B74-0265-4EA8-8A05-4B2E73F935B5}"/>
-    <hyperlink ref="C138" r:id="rId268" xr:uid="{780FC547-2DD8-4BB6-88F0-F24D4F30118B}"/>
-    <hyperlink ref="B139" r:id="rId269" xr:uid="{5AC8B823-17F6-4F91-B0B4-3D20D6238922}"/>
-    <hyperlink ref="C139" r:id="rId270" xr:uid="{E8E8526F-6627-40D7-B872-4EFDBAA1D2DC}"/>
-    <hyperlink ref="B140" r:id="rId271" xr:uid="{701ED640-049D-41B8-AD37-69F58946E404}"/>
-    <hyperlink ref="C140" r:id="rId272" xr:uid="{94EE29AE-D1DB-4E96-86EE-810A7E79E72B}"/>
-    <hyperlink ref="B141" r:id="rId273" xr:uid="{B0B8911E-47D5-42F5-9AEA-4595861D9ED2}"/>
-    <hyperlink ref="B142" r:id="rId274" xr:uid="{124AF41B-A482-4A46-ABAA-E530F20D67A0}"/>
-    <hyperlink ref="C142" r:id="rId275" xr:uid="{A5C63B47-1B82-4AA0-830A-049D0DB3FA9A}"/>
-    <hyperlink ref="B143" r:id="rId276" xr:uid="{10C540FD-269F-4F38-905A-BEE42080B20A}"/>
-    <hyperlink ref="C143" r:id="rId277" xr:uid="{9B3CBBCF-666B-400A-9C52-9B755990C57D}"/>
-    <hyperlink ref="B144" r:id="rId278" xr:uid="{FB845AE1-BF1F-494A-9A91-72A3FC4ACA55}"/>
-    <hyperlink ref="C144" r:id="rId279" xr:uid="{68D5F56B-38EA-4367-AB14-55A1EECFFEB6}"/>
-    <hyperlink ref="B145" r:id="rId280" xr:uid="{1F15F741-6E60-47D5-821C-730D632CDF94}"/>
-    <hyperlink ref="C145" r:id="rId281" xr:uid="{ED52E7E6-200D-44E9-8595-80BDE4BF6BFF}"/>
-    <hyperlink ref="B146" r:id="rId282" xr:uid="{AF1A0618-1BD3-45D5-B14B-2EF2EFC2C5FA}"/>
-    <hyperlink ref="C146" r:id="rId283" xr:uid="{8042A042-A002-4592-84E5-05869A453BFE}"/>
-    <hyperlink ref="B147" r:id="rId284" xr:uid="{BEBF9517-E457-434D-8252-19BD70505CDB}"/>
-    <hyperlink ref="C147" r:id="rId285" xr:uid="{03B51B75-9132-4785-BBCF-E2E1D32A49E8}"/>
-    <hyperlink ref="B148" r:id="rId286" xr:uid="{FDFFC8FC-EB23-45A4-AE4C-611D8352AD4D}"/>
-    <hyperlink ref="C148" r:id="rId287" xr:uid="{0D351D7D-4D5B-465C-84AB-02CE9AC9BB96}"/>
-    <hyperlink ref="B149" r:id="rId288" xr:uid="{506281A5-C182-4B30-9D9A-56AAD19B913B}"/>
-    <hyperlink ref="C149" r:id="rId289" xr:uid="{EBCE5B7B-BEF3-4102-88B5-3CF6EBBC9271}"/>
-    <hyperlink ref="B150" r:id="rId290" xr:uid="{A454CE26-F9FC-4DCB-A318-46FCA0324250}"/>
-    <hyperlink ref="B151" r:id="rId291" xr:uid="{5FAEEE5F-F297-4588-B4BB-FCEB18DE1B5D}"/>
-    <hyperlink ref="C151" r:id="rId292" xr:uid="{13CDEB9E-0C7C-4855-8C21-723368F2BCC3}"/>
-    <hyperlink ref="B152" r:id="rId293" xr:uid="{0BC9C7FA-0331-41E2-8063-0391584F78AF}"/>
-    <hyperlink ref="C152" r:id="rId294" xr:uid="{9EC82CEA-867B-4491-A709-7F28AB8440CE}"/>
-    <hyperlink ref="B153" r:id="rId295" xr:uid="{BD0D90B8-6F80-4C49-93A4-8F7A44F883C8}"/>
-    <hyperlink ref="C153" r:id="rId296" xr:uid="{894DDBB7-AF1B-4DB5-8141-7B0F75F5D23A}"/>
-    <hyperlink ref="B154" r:id="rId297" xr:uid="{AA23D1D4-97A3-4AEC-A90F-08703606E003}"/>
-    <hyperlink ref="C154" r:id="rId298" xr:uid="{7950C68D-ECF4-4B93-80A3-EF0D8700B1D0}"/>
-    <hyperlink ref="B155" r:id="rId299" xr:uid="{D42DDAD7-C8CE-4C43-85AD-44A34313A79D}"/>
-    <hyperlink ref="B156" r:id="rId300" xr:uid="{102AA854-63E8-4918-BCE5-B058DAC9CB4D}"/>
-    <hyperlink ref="C156" r:id="rId301" xr:uid="{FE33C4B1-2C91-454B-ABF0-6EBFE01713A0}"/>
-    <hyperlink ref="B157" r:id="rId302" xr:uid="{1B4CB806-AEF7-4BA1-B55B-C609836493AC}"/>
-    <hyperlink ref="C157" r:id="rId303" xr:uid="{C68B0632-ED28-44AD-8D95-E7E3D2E58772}"/>
-    <hyperlink ref="B158" r:id="rId304" xr:uid="{2570365E-F766-4A78-BB8D-C9DD181D8E5E}"/>
-    <hyperlink ref="C158" r:id="rId305" xr:uid="{FC638153-0858-438C-8D6B-D96777AC35FD}"/>
-    <hyperlink ref="B159" r:id="rId306" xr:uid="{D4F414D0-D7AD-44BF-85BC-693CDCF83215}"/>
-    <hyperlink ref="C159" r:id="rId307" xr:uid="{486C1EE6-1932-4F70-8218-5E26AEEFCA13}"/>
-    <hyperlink ref="B160" r:id="rId308" xr:uid="{86F873C5-B2C7-4329-A6CD-72837D55CF89}"/>
-    <hyperlink ref="C160" r:id="rId309" xr:uid="{15832574-2C2E-487D-9991-F0C89CCC98EF}"/>
-    <hyperlink ref="B161" r:id="rId310" xr:uid="{BAF08538-CBDD-4599-B430-C58A724F2F6B}"/>
-    <hyperlink ref="C161" r:id="rId311" xr:uid="{8834B899-0428-437B-A2E6-F06EF89E5C77}"/>
-    <hyperlink ref="B162" r:id="rId312" xr:uid="{481C8CB5-EC6C-4FFC-A28D-379E91151889}"/>
-    <hyperlink ref="C162" r:id="rId313" xr:uid="{F56CD683-1065-446A-880E-90FD8F50B572}"/>
-    <hyperlink ref="B163" r:id="rId314" xr:uid="{06328742-971C-47F7-986F-ED7B9318E2D4}"/>
-    <hyperlink ref="C163" r:id="rId315" xr:uid="{462D8D19-F80C-4045-84C5-5D528ABDDD3B}"/>
-    <hyperlink ref="B164" r:id="rId316" xr:uid="{1A0FE29F-B00C-4E0D-83F2-0AE6471ED677}"/>
-    <hyperlink ref="C164" r:id="rId317" xr:uid="{A5B52AB2-CF69-4067-AC58-68C5EC94B18A}"/>
-    <hyperlink ref="B165" r:id="rId318" xr:uid="{B8D76228-CAE2-4A77-ABA7-F8847C301834}"/>
-    <hyperlink ref="C165" r:id="rId319" xr:uid="{3F6C7284-7192-4222-9A6A-A1916CF08870}"/>
-    <hyperlink ref="B166" r:id="rId320" xr:uid="{141D95C3-0E8C-46B2-AE68-B6FA38C5F868}"/>
-    <hyperlink ref="C166" r:id="rId321" xr:uid="{345B4D4D-2817-4937-9FD2-BA34A8E0762C}"/>
-    <hyperlink ref="B167" r:id="rId322" xr:uid="{2F46F2D0-4F92-4374-96E7-C9AFDE31F7AF}"/>
-    <hyperlink ref="C167" r:id="rId323" xr:uid="{81A2EA99-2628-4217-ADFD-F2197931A7E2}"/>
-    <hyperlink ref="B168" r:id="rId324" xr:uid="{C6D60348-EAE9-4E91-936C-17E06D8B2B6D}"/>
-    <hyperlink ref="C168" r:id="rId325" xr:uid="{BEDEAA36-79D0-4A46-98C5-84FF8660A578}"/>
-    <hyperlink ref="B169" r:id="rId326" xr:uid="{E6B5FD49-66B7-4632-86B0-937D95CE206C}"/>
-    <hyperlink ref="C169" r:id="rId327" xr:uid="{CB1D72EF-8C3D-4F9D-9E93-6BCFB3E20AFD}"/>
-    <hyperlink ref="B170" r:id="rId328" xr:uid="{FCCC3C13-8DAC-422E-85A8-606B93915FCD}"/>
-    <hyperlink ref="C170" r:id="rId329" xr:uid="{88EB18C7-86DD-484F-9389-5E495E7F6561}"/>
-    <hyperlink ref="B171" r:id="rId330" xr:uid="{CADAEFD5-8900-42D6-8CE2-0118F13C7B7F}"/>
-    <hyperlink ref="C171" r:id="rId331" xr:uid="{6D02BE4F-4A70-41F7-B1E9-265F987556EF}"/>
-    <hyperlink ref="B172" r:id="rId332" xr:uid="{B6CD602C-53FD-4A85-8E71-5697C4B17EEE}"/>
-    <hyperlink ref="C172" r:id="rId333" xr:uid="{B9BBE817-AE2D-4B80-A7EA-5A121CC6BB8E}"/>
-    <hyperlink ref="B173" r:id="rId334" xr:uid="{66375083-568A-4CEC-ACA2-E81D2333B59B}"/>
-    <hyperlink ref="C173" r:id="rId335" xr:uid="{7A17FD88-8BBF-4D88-8488-89E1FD278C2A}"/>
-    <hyperlink ref="B174" r:id="rId336" xr:uid="{8BCA7E31-17C5-45E5-8C90-B6F2FBCC1EDF}"/>
-    <hyperlink ref="C174" r:id="rId337" xr:uid="{8A93B122-4BC8-45EA-8855-240F040FB23C}"/>
-    <hyperlink ref="B175" r:id="rId338" xr:uid="{32686D39-4933-4F40-BF50-A2DD841A0767}"/>
-    <hyperlink ref="C175" r:id="rId339" xr:uid="{B4E809A4-4B33-457A-B634-73129E8D5D96}"/>
-    <hyperlink ref="B176" r:id="rId340" xr:uid="{78BDD8D2-AEC3-47FF-911C-684AF5DE4173}"/>
-    <hyperlink ref="C176" r:id="rId341" xr:uid="{177842BD-4F9E-4EBC-92D0-C72DD551CEF6}"/>
-    <hyperlink ref="B177" r:id="rId342" xr:uid="{D404C45E-BA2B-4A05-9D8A-14826EF0DBFF}"/>
-    <hyperlink ref="C177" r:id="rId343" xr:uid="{3A2A752E-A604-4496-B5E6-6568D165DCD8}"/>
-    <hyperlink ref="B178" r:id="rId344" xr:uid="{FE013F59-D780-407F-92B2-8CAE8449F15A}"/>
-    <hyperlink ref="C178" r:id="rId345" xr:uid="{977EAD7C-03E3-4953-A3B1-AAF0F87B5D42}"/>
-    <hyperlink ref="B179" r:id="rId346" xr:uid="{74DF0985-FCEA-4B0C-82D2-73FB32E56CFD}"/>
-    <hyperlink ref="C179" r:id="rId347" xr:uid="{14B4450B-311C-4F9B-93AA-7B06D349DDD9}"/>
-    <hyperlink ref="B180" r:id="rId348" xr:uid="{ADAE89C0-3FE5-4EE8-93E9-9E88B19F4737}"/>
-    <hyperlink ref="C180" r:id="rId349" xr:uid="{4F511DCE-3FCE-4411-B503-A4652DFD24A1}"/>
-    <hyperlink ref="B181" r:id="rId350" xr:uid="{39F73665-F73A-49FB-9EC3-494DB2FE3B62}"/>
-    <hyperlink ref="C181" r:id="rId351" xr:uid="{B6B62491-4606-40C3-83A9-65620813A912}"/>
-    <hyperlink ref="B182" r:id="rId352" xr:uid="{ACDDFE78-8E1C-462A-81B0-447986B81F97}"/>
-    <hyperlink ref="C182" r:id="rId353" xr:uid="{22BEBE6E-1F2E-4370-A995-7D898D06665D}"/>
-    <hyperlink ref="B183" r:id="rId354" xr:uid="{2B113D02-2664-4C78-90F2-EF89F10523A5}"/>
-    <hyperlink ref="C183" r:id="rId355" xr:uid="{FA3C1615-67A6-4357-AEF7-08A96AE50F0E}"/>
-    <hyperlink ref="B184" r:id="rId356" xr:uid="{43E1C8B3-765B-478B-A630-4319D82F66CA}"/>
-    <hyperlink ref="C184" r:id="rId357" xr:uid="{41185C40-DA74-46CC-81D9-40047D2EDF92}"/>
-    <hyperlink ref="B185" r:id="rId358" xr:uid="{94A09C66-5585-447B-BC17-878189107748}"/>
-    <hyperlink ref="C185" r:id="rId359" xr:uid="{D0E6C7E0-2611-49F4-BDD0-1661CF248EBB}"/>
-    <hyperlink ref="B186" r:id="rId360" xr:uid="{BA35E8F9-74C2-49D7-9F7E-D82C19F2418B}"/>
-    <hyperlink ref="C186" r:id="rId361" xr:uid="{654BCCE4-94F7-414B-8914-B83E0DBC29DD}"/>
-    <hyperlink ref="B187" r:id="rId362" xr:uid="{4C23AB27-A944-45FB-A249-562675617D2A}"/>
-    <hyperlink ref="C187" r:id="rId363" xr:uid="{27466347-F587-424D-9BD2-360272C901C4}"/>
-    <hyperlink ref="B188" r:id="rId364" xr:uid="{18091F8E-4051-4C77-885F-F4D9909EA007}"/>
-    <hyperlink ref="C188" r:id="rId365" xr:uid="{3E19E793-F72F-428B-9DF7-E3CBBB302BE8}"/>
-    <hyperlink ref="B189" r:id="rId366" xr:uid="{6980B6A2-4C97-4B4C-A2DB-94ABD2F6F7B1}"/>
-    <hyperlink ref="C189" r:id="rId367" xr:uid="{8B081623-5060-4119-8598-393E10ADE70A}"/>
-    <hyperlink ref="B190" r:id="rId368" xr:uid="{1D6BA53C-C9A4-4E18-92AB-F43DDCF3CF26}"/>
-    <hyperlink ref="C190" r:id="rId369" xr:uid="{0A81BDAB-A4B6-4829-9BAB-786664ADFDCA}"/>
-    <hyperlink ref="B191" r:id="rId370" xr:uid="{EF236A26-862D-4B28-831C-5743D6148B4D}"/>
-    <hyperlink ref="C191" r:id="rId371" xr:uid="{D99DCA41-6876-4673-93CA-6DC508D0FE43}"/>
-    <hyperlink ref="B192" r:id="rId372" xr:uid="{A2F6FA58-1780-4749-BCC0-22F82C0E480C}"/>
-    <hyperlink ref="C192" r:id="rId373" xr:uid="{4BF32B7E-F2F1-4AF7-9343-51AE991CF158}"/>
-    <hyperlink ref="B193" r:id="rId374" xr:uid="{96BF5553-EE38-4922-9EBB-1A73EC7F8111}"/>
-    <hyperlink ref="C193" r:id="rId375" xr:uid="{9B65BEBF-D968-40DF-956F-E175DD98AEB1}"/>
-    <hyperlink ref="C194" r:id="rId376" xr:uid="{472BA40D-EBB7-4B1C-BC84-1DFA21F0161E}"/>
-    <hyperlink ref="B195" r:id="rId377" xr:uid="{F293034D-71B8-46FF-ABDC-37EC75F44379}"/>
-    <hyperlink ref="C195" r:id="rId378" xr:uid="{93B8AB43-320F-4F55-8F73-3AA95A201277}"/>
-    <hyperlink ref="B196" r:id="rId379" xr:uid="{4277CF42-F9FA-4279-9759-6136D582EBF3}"/>
-    <hyperlink ref="C196" r:id="rId380" xr:uid="{CB454F61-C693-4AAA-AB73-E8A5B35FEB8A}"/>
-    <hyperlink ref="B197" r:id="rId381" xr:uid="{37F4C79C-BE05-441E-BF99-03AAFD189A92}"/>
-    <hyperlink ref="C197" r:id="rId382" xr:uid="{FDFEF9C1-D172-4AFD-BE40-1E7A494F237C}"/>
-    <hyperlink ref="B198" r:id="rId383" xr:uid="{6A2F1F42-3C0A-4B9E-AC51-B59FA11B9058}"/>
-    <hyperlink ref="C198" r:id="rId384" xr:uid="{C5219FC2-7A12-4670-A1BB-8A6D494995BD}"/>
-    <hyperlink ref="B199" r:id="rId385" xr:uid="{860C800B-CB63-4420-B647-8CE8378E8EA6}"/>
-    <hyperlink ref="C199" r:id="rId386" xr:uid="{6B866993-BC06-4758-909A-E4FB8449A3BE}"/>
-    <hyperlink ref="B200" r:id="rId387" xr:uid="{81ABEA70-8D05-4DCD-8616-E805E3FD375C}"/>
-    <hyperlink ref="C200" r:id="rId388" xr:uid="{D4206753-716A-418B-B4F6-42D233C7C376}"/>
-    <hyperlink ref="B201" r:id="rId389" xr:uid="{6328A990-2678-4A6D-95B8-E68A45E22CC0}"/>
-    <hyperlink ref="C201" r:id="rId390" xr:uid="{30FE3812-BDE1-4431-BCCA-A2E7B705196A}"/>
-    <hyperlink ref="B202" r:id="rId391" xr:uid="{D3A0044C-91DB-4333-A2B1-384FC327F4E4}"/>
-    <hyperlink ref="C202" r:id="rId392" xr:uid="{A90CD5D2-983C-43FF-B311-D86AC401E736}"/>
-    <hyperlink ref="B203" r:id="rId393" xr:uid="{50D5BCF6-35B0-4C23-AE4D-83195AC3FB7C}"/>
-    <hyperlink ref="C203" r:id="rId394" xr:uid="{78B449CA-1B17-4C30-A53A-FA8A55C4741B}"/>
-    <hyperlink ref="B204" r:id="rId395" xr:uid="{53E72320-44F7-41F9-A04F-C52D0B6DB954}"/>
-    <hyperlink ref="C204" r:id="rId396" xr:uid="{DF3CC310-6553-48F9-A53E-B421CBA1A4C8}"/>
-    <hyperlink ref="B205" r:id="rId397" xr:uid="{E84F0496-79B2-4B48-9B09-34AE7230437B}"/>
-    <hyperlink ref="C205" r:id="rId398" xr:uid="{DDA25CE8-0FB8-4338-904B-2BE1F7E096D7}"/>
-    <hyperlink ref="B206" r:id="rId399" xr:uid="{592B58EA-7A73-4AB8-AB68-687C56B1D6AA}"/>
-    <hyperlink ref="C206" r:id="rId400" xr:uid="{A3F2E8AC-E294-4B60-958D-A23684B11377}"/>
-    <hyperlink ref="B207" r:id="rId401" xr:uid="{F3BDF8AD-CB10-44F6-9964-33E73B828489}"/>
-    <hyperlink ref="C207" r:id="rId402" xr:uid="{2A58C697-2BC8-4618-8CE4-3D0E988096FA}"/>
-    <hyperlink ref="B208" r:id="rId403" xr:uid="{89006B78-0A97-412C-AA2F-E65E3F229409}"/>
-    <hyperlink ref="C208" r:id="rId404" xr:uid="{62987BF1-1F5C-4C1B-BC1D-4EE9EA6DCA2C}"/>
-    <hyperlink ref="B209" r:id="rId405" xr:uid="{228357E6-D8DF-4BC2-A132-FC6DAB73B1A5}"/>
-    <hyperlink ref="C209" r:id="rId406" xr:uid="{B26363DD-2CEA-4EB8-8D3C-65A193E20AC5}"/>
-    <hyperlink ref="B210" r:id="rId407" xr:uid="{C62AF078-4B9B-4DFC-9A49-978A40E7728F}"/>
-    <hyperlink ref="C210" r:id="rId408" xr:uid="{A5D078E8-A27E-433E-9896-60B92A199B97}"/>
-    <hyperlink ref="B211" r:id="rId409" xr:uid="{0C3E8262-5C4E-446C-8D57-5E745EFFC7FE}"/>
-    <hyperlink ref="C211" r:id="rId410" xr:uid="{616E33C7-3E5A-4101-A477-5AA2A081F1CC}"/>
-    <hyperlink ref="B212" r:id="rId411" xr:uid="{A7CC19C3-28D7-4DCA-9809-F5673041781F}"/>
-    <hyperlink ref="C212" r:id="rId412" xr:uid="{9EFB3915-F748-480B-9370-BA4F78BE8C9F}"/>
-    <hyperlink ref="B213" r:id="rId413" xr:uid="{D751FB24-FB2F-4F5D-8B04-217E4D87BCED}"/>
-    <hyperlink ref="C213" r:id="rId414" xr:uid="{EEE08B6A-1FB2-478F-9D33-380291E2F29A}"/>
-    <hyperlink ref="B214" r:id="rId415" xr:uid="{1DADDF8A-7520-4FC9-B801-3EDF1DB3A775}"/>
-    <hyperlink ref="C214" r:id="rId416" xr:uid="{E50A3781-F003-43B5-89B6-8E36E60C6C28}"/>
-    <hyperlink ref="B215" r:id="rId417" xr:uid="{AE17A3A5-6157-41E7-AEA1-5CCA904D75C0}"/>
-    <hyperlink ref="C215" r:id="rId418" xr:uid="{5353E47F-64C4-47D9-AC97-7DD3217C2FF3}"/>
-    <hyperlink ref="B216" r:id="rId419" xr:uid="{B4805D31-6F16-45E5-99D1-F804242522DF}"/>
-    <hyperlink ref="C216" r:id="rId420" xr:uid="{1F77E08A-D869-41BF-A23C-7EB5081F25A6}"/>
-    <hyperlink ref="B217" r:id="rId421" xr:uid="{CFBB0510-36A6-4CE8-AEE7-5EC2302E9659}"/>
-    <hyperlink ref="C217" r:id="rId422" xr:uid="{7BA9CEA1-23E8-4A55-960A-58C06358EBC3}"/>
-    <hyperlink ref="B218" r:id="rId423" xr:uid="{A1590FF6-13D3-468B-8AB6-D4979B158CF4}"/>
-    <hyperlink ref="C218" r:id="rId424" xr:uid="{5F3CBA25-A5CB-4CE9-9291-7C15BD0F0AF1}"/>
-    <hyperlink ref="B219" r:id="rId425" xr:uid="{4E403241-3464-4860-B29F-F6174A092E02}"/>
-    <hyperlink ref="C219" r:id="rId426" xr:uid="{F0D3FA3D-7267-4D59-9F48-8A50DF3D028D}"/>
-    <hyperlink ref="B220" r:id="rId427" xr:uid="{8C652AF6-EBA2-43CE-9119-69168F3B2232}"/>
-    <hyperlink ref="C220" r:id="rId428" xr:uid="{CDA94569-CD34-4B1D-9682-06B32E311F22}"/>
-    <hyperlink ref="B221" r:id="rId429" xr:uid="{224783D4-607E-4436-94BC-5BC5EBB1A0F9}"/>
-    <hyperlink ref="C221" r:id="rId430" xr:uid="{0B043A5D-E8A9-43B7-85B1-E2A293F3BCB7}"/>
-    <hyperlink ref="B222" r:id="rId431" xr:uid="{0A8829FA-79B6-4BCB-901E-4675897752C7}"/>
-    <hyperlink ref="C222" r:id="rId432" xr:uid="{BD016D52-08DD-4ED5-87EA-6A90F8C77E57}"/>
-    <hyperlink ref="B223" r:id="rId433" xr:uid="{96158F58-5BBD-4342-9B5E-B81CBCBAB46C}"/>
-    <hyperlink ref="C223" r:id="rId434" xr:uid="{F3460841-29C8-4F4C-AFD6-5C22798045A6}"/>
-    <hyperlink ref="B224" r:id="rId435" xr:uid="{329BAD69-2B5F-4F50-8826-4CC0F041DD2A}"/>
-    <hyperlink ref="C224" r:id="rId436" xr:uid="{F2004E7E-4C26-4143-9831-BC223896FE2E}"/>
-    <hyperlink ref="B225" r:id="rId437" xr:uid="{2A755E1C-5435-467A-8E9A-3DEC317E2070}"/>
-    <hyperlink ref="C225" r:id="rId438" xr:uid="{120A52B9-D5C1-4907-A946-2A1592E4931D}"/>
-    <hyperlink ref="B226" r:id="rId439" xr:uid="{B975668E-3F88-49F4-A989-C1E5604BB52F}"/>
-    <hyperlink ref="C226" r:id="rId440" xr:uid="{944A285B-664D-4473-B42F-75F48CB0D31C}"/>
-    <hyperlink ref="B227" r:id="rId441" xr:uid="{275B3D9D-5930-488B-A480-3E96549733F4}"/>
-    <hyperlink ref="C227" r:id="rId442" xr:uid="{106AFF62-1C43-4457-9071-4EF46BA61DF1}"/>
-    <hyperlink ref="B228" r:id="rId443" xr:uid="{C25C4DC9-2063-4417-B892-14C06A8D7C2E}"/>
-    <hyperlink ref="C228" r:id="rId444" xr:uid="{D0E3440C-BDB9-4652-B779-9DAF7F5E2E49}"/>
-    <hyperlink ref="B229" r:id="rId445" xr:uid="{D23D2813-53E0-4AB4-BFC0-268390836656}"/>
-    <hyperlink ref="C229" r:id="rId446" xr:uid="{641AD908-82A5-410B-82DD-93881C7DB4C6}"/>
-    <hyperlink ref="B230" r:id="rId447" xr:uid="{7BA00C80-4E7D-4843-9AB7-85F7D21745B7}"/>
-    <hyperlink ref="C230" r:id="rId448" xr:uid="{D71646D1-9427-4874-A22B-BA5608EDEDFF}"/>
-    <hyperlink ref="B231" r:id="rId449" xr:uid="{21DA304C-3E12-4C0A-BBDF-FB8D29952A1D}"/>
-    <hyperlink ref="C231" r:id="rId450" xr:uid="{3C6D62A5-A91D-4F1B-9093-A2C56498362A}"/>
-    <hyperlink ref="B232" r:id="rId451" xr:uid="{49172AFA-8537-4882-A0C1-14C785BBE725}"/>
-    <hyperlink ref="C232" r:id="rId452" xr:uid="{5164D9F8-86DB-4225-A9A7-AFB97AD6D89C}"/>
-    <hyperlink ref="B233" r:id="rId453" xr:uid="{E271218D-F675-4FD7-9A51-286CD837421E}"/>
-    <hyperlink ref="C233" r:id="rId454" xr:uid="{03526C25-D83B-4100-9216-93F39AEE3DFB}"/>
-    <hyperlink ref="B234" r:id="rId455" xr:uid="{1C56FC87-06D9-477D-A17F-C585BAACB79B}"/>
-    <hyperlink ref="C234" r:id="rId456" xr:uid="{DDE81BE1-890A-4D22-B0C7-1364857E8598}"/>
-    <hyperlink ref="B235" r:id="rId457" xr:uid="{92E277FB-7321-449E-992F-FE2547B15E52}"/>
-    <hyperlink ref="C235" r:id="rId458" xr:uid="{212F81D3-C13D-4929-8ABE-ED9F2AB3D64D}"/>
-    <hyperlink ref="B236" r:id="rId459" xr:uid="{9054EEAE-BA45-4B44-9A6E-6F355B23327E}"/>
-    <hyperlink ref="C236" r:id="rId460" xr:uid="{665C408D-6DE7-4595-8474-C7C563826304}"/>
-    <hyperlink ref="B237" r:id="rId461" xr:uid="{1AD535E6-25A4-49DA-8071-76F73D79ACE2}"/>
-    <hyperlink ref="C237" r:id="rId462" xr:uid="{E3AFFEEC-850D-4D03-876E-4C7AA7C19657}"/>
-    <hyperlink ref="B238" r:id="rId463" xr:uid="{F98364A5-A098-4704-A3D1-FDC4ACA68D60}"/>
-    <hyperlink ref="C238" r:id="rId464" xr:uid="{B8E368A4-AB76-4CA0-B37B-45479B5E065A}"/>
-    <hyperlink ref="B239" r:id="rId465" xr:uid="{6E54D456-5F1D-4F93-A4CD-BAED6862481A}"/>
-    <hyperlink ref="C239" r:id="rId466" xr:uid="{8055BD3D-F13C-4DA2-AC52-6467F53F4A6C}"/>
-    <hyperlink ref="B240" r:id="rId467" xr:uid="{523C4FAB-B34F-4423-9745-040B4C4687D0}"/>
-    <hyperlink ref="B241" r:id="rId468" xr:uid="{81AB83A5-24E8-4489-BD29-2BE493C25ED8}"/>
-    <hyperlink ref="C241" r:id="rId469" xr:uid="{AFEB9C56-2AE4-4BA6-996C-D3D9472A1030}"/>
-    <hyperlink ref="B242" r:id="rId470" xr:uid="{657C08A7-3F46-426D-8252-E85C742D503A}"/>
-    <hyperlink ref="C242" r:id="rId471" xr:uid="{EB32AE89-F02F-4002-ADD1-6E77892E6DF5}"/>
-    <hyperlink ref="B243" r:id="rId472" xr:uid="{EF951E8E-F499-47FC-BC0D-30A629977C2F}"/>
-    <hyperlink ref="C243" r:id="rId473" xr:uid="{0DA5A33C-1EA8-4D78-98F2-B388F0BA9B10}"/>
-    <hyperlink ref="B244" r:id="rId474" xr:uid="{456B3B7F-A30E-4CB2-BD82-5260C0C69FAD}"/>
-    <hyperlink ref="C244" r:id="rId475" xr:uid="{5F4FA17B-925E-4BDA-AECF-0AB6F0621E99}"/>
-    <hyperlink ref="B245" r:id="rId476" xr:uid="{594A7097-EDA2-4D15-89C3-403BEC51A0A3}"/>
-    <hyperlink ref="C245" r:id="rId477" xr:uid="{FE6D818B-38E7-4FB3-9176-103E55699FDF}"/>
-    <hyperlink ref="B246" r:id="rId478" xr:uid="{D324B0D3-8E55-434F-B3E4-5A847382EA61}"/>
-    <hyperlink ref="C246" r:id="rId479" xr:uid="{9090DF72-3EF8-4AF6-B333-59D055C0B924}"/>
-    <hyperlink ref="B247" r:id="rId480" xr:uid="{615A8191-B90B-4889-9B31-267D7FDC3423}"/>
-    <hyperlink ref="C247" r:id="rId481" xr:uid="{D451A145-81C6-455B-BCCF-0B58813A3403}"/>
-    <hyperlink ref="B248" r:id="rId482" xr:uid="{A67F53D3-2C55-466E-B09E-DE9E7569CB94}"/>
-    <hyperlink ref="C248" r:id="rId483" xr:uid="{46012F3D-B118-4843-97DE-989DE4420423}"/>
-    <hyperlink ref="B249" r:id="rId484" xr:uid="{3D5AE9A4-44CB-4892-8D30-C5F5D9713C92}"/>
-    <hyperlink ref="B250" r:id="rId485" xr:uid="{D342B6AE-E3B2-44DF-B81B-4206188D2172}"/>
-    <hyperlink ref="B251" r:id="rId486" xr:uid="{B373734E-2AA5-4EAE-A957-D61356E6196E}"/>
-    <hyperlink ref="B252" r:id="rId487" xr:uid="{E28E3A4D-570C-4E04-B76C-439ED5AAF1DE}"/>
-    <hyperlink ref="B253" r:id="rId488" xr:uid="{2F8FD510-163C-401A-9FFA-885829469A11}"/>
-    <hyperlink ref="C253" r:id="rId489" display="https://7132834.app.netsuite.com/app/accounting/transactions/vendbill.nl?id=4065059&amp;fromreport=283&amp;summaryurl=%252Fapp%252Freporting%252Freportrunner.nl%253Fviewasreport%253DT%2526specacct%253DAcctPay%2526openonly%253DT%2526acctid%253D%2526cr%253D283%2526critSpec5%253Dtrandoc%25252Ctrandoc%25252Ckentitymain%25252Cx%25252Cx%25252CIN%2526fieldVals5%253D52229" xr:uid="{9B40D851-8723-4BF0-8635-21474C9A8631}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B9432333-2CDD-4B09-A548-337DDDE41D73}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5DF20BF8-84A6-4C76-A310-79BBB30D0FD9}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{6B208007-7EE7-4B93-A136-3BA18D04AF30}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{E549504C-A08D-4281-BD1A-F8C256480BCA}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{D637F22A-F129-4A78-8794-09D925912E86}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{642B5174-3A23-41EA-92CC-CBF2340C437A}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{A3C1D3CE-73EB-427B-964F-49E5A7871482}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{7DD66634-5EE1-45C2-88B1-60A81BCE8845}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{45CCA3B8-B67D-479D-A72C-F5B81C942360}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{EE67D33B-19B2-4D25-A9BD-9913FD574208}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{332CAE00-7970-434C-8179-A46661F5931F}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{1374DA47-7244-43E0-AA55-8E94A1E5CB2E}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{ACAE304C-AA6C-4F7D-A139-5EBF7F011DB8}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{6893D1EF-1BAA-445E-B468-DCB0687AD64A}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{18F6F9E9-FDBA-4A62-B834-48CC80B3CEF8}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{CE7EFA6A-ADE7-4555-8C8D-DA2F648C48FE}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{10E1F0EA-FA2F-4BF0-BC92-69D1EE4D5722}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{B8A560BE-730F-4663-BD45-0FF103B66F36}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{D3B71A8C-783B-4973-A189-263EAD52F2EB}"/>
+    <hyperlink ref="C11" r:id="rId20" xr:uid="{54CE871A-728E-4EBD-A625-FC209CD48178}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{6A23E24D-422E-4C3D-B14D-4A92CC2744AD}"/>
+    <hyperlink ref="C12" r:id="rId22" xr:uid="{190A61E3-64B8-4189-8B9D-77FB80768F0F}"/>
+    <hyperlink ref="B13" r:id="rId23" xr:uid="{40AC6FE0-9AC5-4828-B760-E082453E99BE}"/>
+    <hyperlink ref="C13" r:id="rId24" xr:uid="{3A209F94-5AAC-43ED-B542-706CCA1B0813}"/>
+    <hyperlink ref="B14" r:id="rId25" xr:uid="{A1618020-C88A-4AE9-A3F1-B89D8F669300}"/>
+    <hyperlink ref="B15" r:id="rId26" xr:uid="{E71ADB85-53A6-4C16-A023-7F2D82A12D7A}"/>
+    <hyperlink ref="C15" r:id="rId27" display="https://7132834.app.netsuite.com/app/accounting/transactions/vendbill.nl?id=3829348&amp;fromreport=283&amp;summaryurl=%252Fapp%252Freporting%252Freportrunner.nl%253Fviewasreport%253DT%2526specacct%253DAcctPay%2526openonly%253DT%2526acctid%253D%2526cr%253D283%2526critSpec5%253Dtrandoc%25252Ctrandoc%25252Ckentitymain%25252Cx%25252Cx%25252CIN%2526fieldVals5%253D54858" xr:uid="{52E0F3A1-F272-4C46-A4B7-A5F012365DA8}"/>
+    <hyperlink ref="B16" r:id="rId28" xr:uid="{DE25925E-154E-46C9-9E2C-A204C4645261}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{1CA06502-6731-480C-B18A-7056CD13B898}"/>
+    <hyperlink ref="B17" r:id="rId30" xr:uid="{329C5BB8-F78F-47FC-A4E9-4887915E3226}"/>
+    <hyperlink ref="C17" r:id="rId31" xr:uid="{1400D5F1-2186-42CA-8A7C-450DEDB6001B}"/>
+    <hyperlink ref="B18" r:id="rId32" xr:uid="{9827E01C-16E8-471B-A4A4-E66D72A03D85}"/>
+    <hyperlink ref="C18" r:id="rId33" xr:uid="{1CC66288-8316-45F3-988C-AD31E2D6FF07}"/>
+    <hyperlink ref="B19" r:id="rId34" xr:uid="{A13A40A7-C3A1-4F7D-92D8-DFEE43EAF82C}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{A0C36FC6-D672-461C-BA49-2125E5A48EB8}"/>
+    <hyperlink ref="B20" r:id="rId36" xr:uid="{BF80CE12-0E37-42CF-9601-64CE5961BB57}"/>
+    <hyperlink ref="C20" r:id="rId37" xr:uid="{C057503D-DAC7-4B14-BC1D-AE2B55CFA6D1}"/>
+    <hyperlink ref="B21" r:id="rId38" xr:uid="{2151DBE6-D162-4A53-83FB-E7392DB24BA5}"/>
+    <hyperlink ref="C21" r:id="rId39" xr:uid="{DAA4700C-D53F-453A-9863-BD86C19C2397}"/>
+    <hyperlink ref="B22" r:id="rId40" xr:uid="{7B50D6E5-0287-4C10-B82F-074909763515}"/>
+    <hyperlink ref="C22" r:id="rId41" xr:uid="{93A49655-F619-4755-B35C-81D13A8BE41D}"/>
+    <hyperlink ref="B23" r:id="rId42" xr:uid="{1A698628-CC4D-4DED-A253-ED0FF88203F4}"/>
+    <hyperlink ref="C23" r:id="rId43" xr:uid="{1FC86C83-7047-4EC8-A3F1-AC53BAC3DF21}"/>
+    <hyperlink ref="B24" r:id="rId44" xr:uid="{02C1498E-9DD3-4C85-963B-2B36124D44C7}"/>
+    <hyperlink ref="C24" r:id="rId45" xr:uid="{275F1BD8-3DD9-4FE3-9181-F6B81EC8A10C}"/>
+    <hyperlink ref="B25" r:id="rId46" xr:uid="{63BF95B8-1743-46E3-B852-CCFBA43DD63E}"/>
+    <hyperlink ref="C25" r:id="rId47" xr:uid="{9CF04C1C-91EF-42AA-8D62-BBE1F296445C}"/>
+    <hyperlink ref="B26" r:id="rId48" xr:uid="{C9C2665B-8CB5-4042-A181-1D4D1CFC857C}"/>
+    <hyperlink ref="C26" r:id="rId49" xr:uid="{7715706F-AE3A-45E1-8370-74ADA5F52AC9}"/>
+    <hyperlink ref="B27" r:id="rId50" xr:uid="{13C7E60E-5300-40E5-8F7C-E3B81D064333}"/>
+    <hyperlink ref="C27" r:id="rId51" xr:uid="{BB98FFD6-A659-44C5-B6D0-1BFFD2B3AE07}"/>
+    <hyperlink ref="B28" r:id="rId52" xr:uid="{9168E6BC-3FA7-4BFC-A61E-ACD77CA7C424}"/>
+    <hyperlink ref="C28" r:id="rId53" xr:uid="{2B826AB6-8F17-4982-B8B7-479D45235EF4}"/>
+    <hyperlink ref="B29" r:id="rId54" xr:uid="{FED917E0-7B45-4034-BB4D-9F5702DFFEDB}"/>
+    <hyperlink ref="C29" r:id="rId55" xr:uid="{02400E78-BFD1-4B28-91EB-1E2B1175D289}"/>
+    <hyperlink ref="B30" r:id="rId56" xr:uid="{D71BF618-FBC1-418D-A0F4-803FF3EE7EAA}"/>
+    <hyperlink ref="C30" r:id="rId57" xr:uid="{10A280C4-AC39-4013-B9CB-8BA7E50D9558}"/>
+    <hyperlink ref="B31" r:id="rId58" xr:uid="{57E95960-0F59-464A-9AB5-33975AAD41A0}"/>
+    <hyperlink ref="C31" r:id="rId59" xr:uid="{C9B7B806-04D7-424F-97B4-8B02C64AD577}"/>
+    <hyperlink ref="B32" r:id="rId60" xr:uid="{915CDB4E-D55E-4287-B283-2C53C91A38B5}"/>
+    <hyperlink ref="B33" r:id="rId61" xr:uid="{4E030E73-3717-4F7B-BA33-9F4A36E73EAC}"/>
+    <hyperlink ref="C33" r:id="rId62" xr:uid="{5A29EA62-1D32-4600-91FB-5962AE9F3BBF}"/>
+    <hyperlink ref="B34" r:id="rId63" xr:uid="{8B199188-F8E5-4EF8-BD26-A5763A0069A4}"/>
+    <hyperlink ref="C34" r:id="rId64" xr:uid="{B6C105B5-9A0C-4D63-8AEB-DEB1F04D14FF}"/>
+    <hyperlink ref="B35" r:id="rId65" xr:uid="{B40E85B2-53C3-4FBA-B676-3CC06D33B323}"/>
+    <hyperlink ref="C35" r:id="rId66" xr:uid="{10E4C581-77BA-4FF1-97DB-6B2CC9BA0C0B}"/>
+    <hyperlink ref="B36" r:id="rId67" xr:uid="{A93970CB-E61C-442A-ABE8-BB35F54DADDF}"/>
+    <hyperlink ref="C36" r:id="rId68" xr:uid="{862C6216-2077-4A7A-B119-91D758692622}"/>
+    <hyperlink ref="B37" r:id="rId69" xr:uid="{071909FB-5DE3-4743-986E-C0F0FF89B67B}"/>
+    <hyperlink ref="C37" r:id="rId70" xr:uid="{D7E35E76-6CE0-4662-ABE2-FE70574614C8}"/>
+    <hyperlink ref="B38" r:id="rId71" xr:uid="{42EAA333-1808-42E5-8ADB-BDC21840A72C}"/>
+    <hyperlink ref="C38" r:id="rId72" xr:uid="{AB896680-4F29-4CB4-A598-E52804D16C49}"/>
+    <hyperlink ref="B39" r:id="rId73" xr:uid="{5F20DA60-CDC6-4530-A195-CABB10D4B30E}"/>
+    <hyperlink ref="C39" r:id="rId74" xr:uid="{6FAA0F78-6106-451F-AF69-483421815F46}"/>
+    <hyperlink ref="B40" r:id="rId75" xr:uid="{9468C4E2-A7F3-4F50-A10A-AAC61C46A6AA}"/>
+    <hyperlink ref="C40" r:id="rId76" xr:uid="{B27A5549-355E-4AA6-A908-D1BDE9AE9A0C}"/>
+    <hyperlink ref="B41" r:id="rId77" xr:uid="{2D91DB8E-C895-46A9-B890-5CEF9E5A69A0}"/>
+    <hyperlink ref="C41" r:id="rId78" xr:uid="{DE49D0CD-D65E-444C-9B57-CF41FC7CF7C2}"/>
+    <hyperlink ref="B42" r:id="rId79" xr:uid="{B737893D-1DE8-4CB8-AD75-6843115B8DA4}"/>
+    <hyperlink ref="C42" r:id="rId80" xr:uid="{CF452029-D5BE-41F8-A99C-835BE14EC458}"/>
+    <hyperlink ref="B43" r:id="rId81" xr:uid="{3BAADF30-905F-45B8-98F7-11B7709BC165}"/>
+    <hyperlink ref="C43" r:id="rId82" xr:uid="{04F622CD-45F5-4CBC-9056-E0C027E965D0}"/>
+    <hyperlink ref="B44" r:id="rId83" xr:uid="{E17E88F2-D103-411E-A353-AB64080AB517}"/>
+    <hyperlink ref="C44" r:id="rId84" xr:uid="{1242D3E7-EC1A-434F-92E1-14C51AE93B4D}"/>
+    <hyperlink ref="B45" r:id="rId85" xr:uid="{6E88E5ED-D7F9-4B72-97C7-F2C7E6431F20}"/>
+    <hyperlink ref="C45" r:id="rId86" xr:uid="{02F4F0B8-7EB6-4A91-968C-BC3270C3A08F}"/>
+    <hyperlink ref="B46" r:id="rId87" xr:uid="{219EADCA-F104-4337-8D7B-E0CC1B3A685B}"/>
+    <hyperlink ref="C46" r:id="rId88" xr:uid="{7A9CF247-B1E5-4EE7-8CCA-970C20521578}"/>
+    <hyperlink ref="B47" r:id="rId89" xr:uid="{1B1A26B3-3FE6-43E5-B588-6FE73B475083}"/>
+    <hyperlink ref="C47" r:id="rId90" xr:uid="{8FC01100-7A58-424A-8FB6-DCFF95BD2311}"/>
+    <hyperlink ref="B48" r:id="rId91" xr:uid="{709FAD2A-3520-4DBD-AD47-9C853239EA66}"/>
+    <hyperlink ref="C48" r:id="rId92" xr:uid="{4A6D2473-2F0D-4DD5-8390-EE7EC4D8EC43}"/>
+    <hyperlink ref="B49" r:id="rId93" xr:uid="{E72A335E-E21E-411B-A91C-A3643D082770}"/>
+    <hyperlink ref="C49" r:id="rId94" xr:uid="{B9D4961C-17D4-4FF3-BF90-8A480D4DAC2F}"/>
+    <hyperlink ref="B50" r:id="rId95" xr:uid="{5F97CFF9-E7E6-4C44-9198-52316FDAE523}"/>
+    <hyperlink ref="C50" r:id="rId96" xr:uid="{8F48881C-E691-47BB-9634-D56AA68BEE91}"/>
+    <hyperlink ref="B51" r:id="rId97" xr:uid="{0A022CC2-4472-4154-B9F5-D03BD8B3FCA2}"/>
+    <hyperlink ref="C51" r:id="rId98" xr:uid="{51049B18-05DF-4C82-A7D8-C6149C3D74B1}"/>
+    <hyperlink ref="B52" r:id="rId99" xr:uid="{663FECD0-6C45-4706-BF55-D0D9507CC1CC}"/>
+    <hyperlink ref="C52" r:id="rId100" xr:uid="{EE7B97BC-4C5B-4457-8A95-28877CE9FBA2}"/>
+    <hyperlink ref="B53" r:id="rId101" xr:uid="{7FC5D647-777A-4866-93D4-39AAB45468FA}"/>
+    <hyperlink ref="C53" r:id="rId102" xr:uid="{A45184B7-11F8-476A-BFA0-545724381EB2}"/>
+    <hyperlink ref="B54" r:id="rId103" xr:uid="{F4352B07-F1B9-4036-99A7-3D3967C0AAB5}"/>
+    <hyperlink ref="C54" r:id="rId104" xr:uid="{B5EB38E1-75C7-42D6-A3C5-ED83BD34C74D}"/>
+    <hyperlink ref="B55" r:id="rId105" xr:uid="{28A85885-C4CE-49B5-8C19-D8BC064BE13C}"/>
+    <hyperlink ref="C55" r:id="rId106" xr:uid="{3CEBAFAC-6460-4E35-915C-224EECD9271B}"/>
+    <hyperlink ref="B56" r:id="rId107" xr:uid="{92BD115D-719E-45DE-8D54-F8F03BDA7ACB}"/>
+    <hyperlink ref="C56" r:id="rId108" xr:uid="{6BDAEBF9-C0F9-41DC-8924-D80AAF374039}"/>
+    <hyperlink ref="B57" r:id="rId109" xr:uid="{2E13878C-F81F-430E-8ABD-7DF353C10E7A}"/>
+    <hyperlink ref="C57" r:id="rId110" xr:uid="{0921CDFD-F874-4A1F-B7D4-7E5D85423699}"/>
+    <hyperlink ref="B58" r:id="rId111" xr:uid="{F682390C-F7C2-4635-BFDB-8BB481FAFA17}"/>
+    <hyperlink ref="C58" r:id="rId112" xr:uid="{0683D9BC-5C3F-4343-ACCE-E33EB062A10F}"/>
+    <hyperlink ref="B59" r:id="rId113" xr:uid="{D22E3FFA-9A01-4E3B-A457-C301E00BF038}"/>
+    <hyperlink ref="C59" r:id="rId114" xr:uid="{939C6D46-41BA-4602-9E59-E869FF65796D}"/>
+    <hyperlink ref="B60" r:id="rId115" xr:uid="{70DDF432-92C7-44FC-B695-77EBB97A1977}"/>
+    <hyperlink ref="C60" r:id="rId116" xr:uid="{2B5AAD11-EF5D-4D70-BA08-E6D0A5FFF35B}"/>
+    <hyperlink ref="B61" r:id="rId117" xr:uid="{ED6968B0-38E4-49FE-AE8F-3DFBABDC6734}"/>
+    <hyperlink ref="C61" r:id="rId118" xr:uid="{0E81348F-E541-41FF-8F61-E2EFEB3D7092}"/>
+    <hyperlink ref="B62" r:id="rId119" xr:uid="{3731C77B-A30C-4A3F-B2EF-C27AAB4096C6}"/>
+    <hyperlink ref="C62" r:id="rId120" xr:uid="{9E35EBD2-DA76-4B93-A5E7-22060135B0EB}"/>
+    <hyperlink ref="B63" r:id="rId121" xr:uid="{6D011F57-B65E-4443-9BC6-32134B56E4AD}"/>
+    <hyperlink ref="C63" r:id="rId122" xr:uid="{4ADF8C09-7699-4B8C-9274-6048C0B40BC6}"/>
+    <hyperlink ref="B64" r:id="rId123" xr:uid="{EF68B972-2A15-41B7-B47A-FA5B74265409}"/>
+    <hyperlink ref="C64" r:id="rId124" xr:uid="{944B47D0-9E37-42E4-B0FE-504070501F3E}"/>
+    <hyperlink ref="B65" r:id="rId125" xr:uid="{15B596FA-74EA-4ED4-A2D1-52D95D9DC82B}"/>
+    <hyperlink ref="C65" r:id="rId126" xr:uid="{F6139EB1-D19E-4D86-8893-9556AF24F205}"/>
+    <hyperlink ref="B66" r:id="rId127" xr:uid="{C145F58A-B687-45DA-9295-8685A24B9D76}"/>
+    <hyperlink ref="C66" r:id="rId128" xr:uid="{591F515A-6DCD-4504-BF8A-AA9917C37A00}"/>
+    <hyperlink ref="B67" r:id="rId129" xr:uid="{1E4AD7F7-30FB-4829-881C-C8B4209335AF}"/>
+    <hyperlink ref="C67" r:id="rId130" xr:uid="{0E3F0C15-39E9-4B3C-A6A2-9C4BEB952C71}"/>
+    <hyperlink ref="B68" r:id="rId131" xr:uid="{CE85989C-EDEE-4BCD-B9DB-2D051CD638DB}"/>
+    <hyperlink ref="C68" r:id="rId132" xr:uid="{F9B1F388-6A0B-48BC-AA36-72DD90A47816}"/>
+    <hyperlink ref="B69" r:id="rId133" xr:uid="{09A8773A-5AEF-411B-971A-B308A834931D}"/>
+    <hyperlink ref="C69" r:id="rId134" xr:uid="{D0AE0AE0-B63C-4ABE-A721-3A42BE726274}"/>
+    <hyperlink ref="B70" r:id="rId135" xr:uid="{A389B76B-BFF9-4909-BA02-860C530B5AE4}"/>
+    <hyperlink ref="C70" r:id="rId136" xr:uid="{B404BFB6-9DA9-43A5-A37C-E46BB227ECAC}"/>
+    <hyperlink ref="B71" r:id="rId137" xr:uid="{71F9DB41-A837-419B-9912-2F12BAF6C12D}"/>
+    <hyperlink ref="C71" r:id="rId138" xr:uid="{BFCBB2B1-46E4-4679-916B-AC47A1143A93}"/>
+    <hyperlink ref="B72" r:id="rId139" xr:uid="{EC6AD400-F6F4-4373-BB8A-DD4A103F8228}"/>
+    <hyperlink ref="C72" r:id="rId140" xr:uid="{E2982B2D-FBB3-49B1-8086-D1041C4375A1}"/>
+    <hyperlink ref="B73" r:id="rId141" xr:uid="{57E76235-E4AD-41B0-B59B-84ADF61733E5}"/>
+    <hyperlink ref="C73" r:id="rId142" xr:uid="{7F2EADA0-7257-4F09-9CED-DF67160F7311}"/>
+    <hyperlink ref="B74" r:id="rId143" xr:uid="{E06DB80F-1D0F-469E-A5FA-3F40963418B1}"/>
+    <hyperlink ref="B75" r:id="rId144" xr:uid="{63A42691-1CDC-4945-89BD-490B2AEA0881}"/>
+    <hyperlink ref="C75" r:id="rId145" xr:uid="{BDC07F4D-730E-4C15-B8B0-646AD2ED80CE}"/>
+    <hyperlink ref="B76" r:id="rId146" xr:uid="{7892F8CB-78E8-4E0E-8009-59A48F022CD7}"/>
+    <hyperlink ref="C76" r:id="rId147" xr:uid="{508276DD-9ED9-4545-9B31-D2569A49C0BA}"/>
+    <hyperlink ref="B77" r:id="rId148" xr:uid="{2C147563-F3B2-4C0D-8853-42D662208755}"/>
+    <hyperlink ref="C77" r:id="rId149" xr:uid="{D386A956-621F-4C08-A7BA-C3718356D70D}"/>
+    <hyperlink ref="B78" r:id="rId150" xr:uid="{4D46A635-F421-4BCE-9407-9FE2F068A245}"/>
+    <hyperlink ref="C78" r:id="rId151" xr:uid="{C77271AF-3727-498B-94F1-91D84769BB85}"/>
+    <hyperlink ref="B79" r:id="rId152" xr:uid="{DA55AEAE-1FD1-47FC-8A53-46B3A1D1555E}"/>
+    <hyperlink ref="C79" r:id="rId153" xr:uid="{ADD7F2B0-03C3-4FDE-AD42-B1C90EF140CA}"/>
+    <hyperlink ref="B80" r:id="rId154" xr:uid="{585B7468-7BFF-4607-B987-1A4B4CA1561F}"/>
+    <hyperlink ref="C80" r:id="rId155" xr:uid="{56F33B0A-60DB-4643-9988-C7570EEB9086}"/>
+    <hyperlink ref="B81" r:id="rId156" xr:uid="{92E953A0-E139-4708-A28D-B74AE7929CE3}"/>
+    <hyperlink ref="C81" r:id="rId157" xr:uid="{731B84D6-E01C-4FC3-A41B-6D52CEA07F75}"/>
+    <hyperlink ref="B82" r:id="rId158" xr:uid="{90F29675-09FB-450B-A63D-8D6C23381906}"/>
+    <hyperlink ref="C82" r:id="rId159" xr:uid="{486BC323-F77C-4D7B-B010-734880EE55CD}"/>
+    <hyperlink ref="B83" r:id="rId160" xr:uid="{DBC95C4D-3FAB-4479-9FD8-4D041159E816}"/>
+    <hyperlink ref="C83" r:id="rId161" xr:uid="{7E54194E-22F1-415F-9682-EA033F185A22}"/>
+    <hyperlink ref="B84" r:id="rId162" xr:uid="{437D782C-12F3-4FC5-BB01-D8DD072B447E}"/>
+    <hyperlink ref="C84" r:id="rId163" display="https://7132834.app.netsuite.com/app/accounting/transactions/vendbill.nl?id=3821340&amp;fromreport=283&amp;summaryurl=%252Fapp%252Freporting%252Freportrunner.nl%253Fviewasreport%253DT%2526specacct%253DAcctPay%2526openonly%253DT%2526acctid%253D%2526cr%253D283%2526critSpec5%253Dtrandoc%25252Ctrandoc%25252Ckentitymain%25252Cx%25252Cx%25252CIN%2526fieldVals5%253D69993" xr:uid="{EE4628DF-2495-425B-B88F-88C0F06E729E}"/>
+    <hyperlink ref="B85" r:id="rId164" xr:uid="{3B27EA3D-A3C6-466F-AA9A-5BC39C851130}"/>
+    <hyperlink ref="C85" r:id="rId165" xr:uid="{C114F2A6-C584-4A6C-81D0-C27BAC6BA12C}"/>
+    <hyperlink ref="B86" r:id="rId166" xr:uid="{F79BC622-CF59-4D6A-BDAE-56299637E200}"/>
+    <hyperlink ref="C86" r:id="rId167" xr:uid="{82CFB407-F494-4F64-8447-48736214A85E}"/>
+    <hyperlink ref="B87" r:id="rId168" xr:uid="{CAEC9DC9-6887-4294-A098-D398C8217EAB}"/>
+    <hyperlink ref="B88" r:id="rId169" xr:uid="{11F82A83-BFB3-49B4-B078-1F2662515D43}"/>
+    <hyperlink ref="B89" r:id="rId170" xr:uid="{BF045E58-3694-412C-A518-08DC0314A191}"/>
+    <hyperlink ref="C89" r:id="rId171" xr:uid="{D1716F83-E515-40EA-8137-993DCF653FB5}"/>
+    <hyperlink ref="B90" r:id="rId172" xr:uid="{36F846A3-E4DE-4F8D-82F7-F41969AD80E9}"/>
+    <hyperlink ref="B91" r:id="rId173" xr:uid="{6D027448-F794-4ADE-A992-32F06860B2F7}"/>
+    <hyperlink ref="C91" r:id="rId174" xr:uid="{A48C098D-DDFF-4BFF-9C26-6C418DDCDD25}"/>
+    <hyperlink ref="B92" r:id="rId175" xr:uid="{5AB2373F-B581-4B26-B528-F53542CA7C0F}"/>
+    <hyperlink ref="C92" r:id="rId176" xr:uid="{73E80BC5-48DF-4F6E-881C-E236038324AF}"/>
+    <hyperlink ref="B93" r:id="rId177" xr:uid="{A8D87052-4F0B-4608-A976-203BC108BF46}"/>
+    <hyperlink ref="C93" r:id="rId178" xr:uid="{4A0A8B7A-C73C-40D4-B050-8F0E22B3996D}"/>
+    <hyperlink ref="B94" r:id="rId179" xr:uid="{7D5CD3CF-F2C4-4F1D-A462-05B0DA4DF72B}"/>
+    <hyperlink ref="C94" r:id="rId180" xr:uid="{598AEC6F-F449-460A-B06F-4B052EC7D02F}"/>
+    <hyperlink ref="B95" r:id="rId181" xr:uid="{D4F5B3EE-5F86-4FF2-ACB4-41963C25B51C}"/>
+    <hyperlink ref="C95" r:id="rId182" xr:uid="{EF3E9E15-71E6-46EC-95AF-2721ABE587C7}"/>
+    <hyperlink ref="B96" r:id="rId183" xr:uid="{AD6CF79B-1FC3-4455-A62C-D0C272FC5FAA}"/>
+    <hyperlink ref="C96" r:id="rId184" xr:uid="{64574DC1-1BE0-4B65-9318-A6C69A6D1B16}"/>
+    <hyperlink ref="B97" r:id="rId185" xr:uid="{2A3F0C59-D992-43F4-BD54-FE8AD65570C1}"/>
+    <hyperlink ref="C97" r:id="rId186" xr:uid="{330CE52B-604F-4C2C-9B9B-E49824596D87}"/>
+    <hyperlink ref="B98" r:id="rId187" xr:uid="{39CD94E2-8910-49C0-9BE2-AFC94DE42198}"/>
+    <hyperlink ref="C98" r:id="rId188" xr:uid="{58375126-9087-4687-B9DF-2B0775C23470}"/>
+    <hyperlink ref="B99" r:id="rId189" xr:uid="{AA73423B-D1BF-4BFF-A368-DA052D3810ED}"/>
+    <hyperlink ref="C99" r:id="rId190" xr:uid="{D655D391-C487-493C-A055-8C4F0778DD1A}"/>
+    <hyperlink ref="B100" r:id="rId191" xr:uid="{EACA152F-079A-4377-BAB5-CC10BBAF1B82}"/>
+    <hyperlink ref="C100" r:id="rId192" xr:uid="{AF5B7A6C-EAA9-46B6-8378-281AA326B447}"/>
+    <hyperlink ref="B101" r:id="rId193" xr:uid="{C9FBBAB3-925B-4704-ABBD-F5931BAE7D88}"/>
+    <hyperlink ref="C101" r:id="rId194" xr:uid="{CD4EC576-2C57-4D6B-B756-8E0A70C54531}"/>
+    <hyperlink ref="B102" r:id="rId195" xr:uid="{13D75F21-F45D-447C-A3C7-54DF46DF6E50}"/>
+    <hyperlink ref="C102" r:id="rId196" xr:uid="{1962D2D1-B268-4BE3-881F-3958D0DAFC0C}"/>
+    <hyperlink ref="B103" r:id="rId197" xr:uid="{92DBA793-FECF-438B-A582-28FCF9ADFC67}"/>
+    <hyperlink ref="C103" r:id="rId198" xr:uid="{7765AC2B-EB40-4F21-ADF5-6EEAD1C0F4C6}"/>
+    <hyperlink ref="B104" r:id="rId199" xr:uid="{93A463B4-2D22-4A16-9D60-88AD6791DA65}"/>
+    <hyperlink ref="C104" r:id="rId200" xr:uid="{DC7F5235-971D-46DE-A4CC-A1A4442431BC}"/>
+    <hyperlink ref="B105" r:id="rId201" xr:uid="{E10A782F-2D31-441C-B403-94FFC2F2C08C}"/>
+    <hyperlink ref="C105" r:id="rId202" xr:uid="{9108FBBE-2EE2-4947-B52C-D14ED951F750}"/>
+    <hyperlink ref="B106" r:id="rId203" xr:uid="{87E3A66F-DF39-4344-9DC5-91F3894763EC}"/>
+    <hyperlink ref="C106" r:id="rId204" xr:uid="{24F8D31E-69B0-4613-8EEC-0CD49310AEFA}"/>
+    <hyperlink ref="B107" r:id="rId205" xr:uid="{D6950CAB-B40A-4DAB-A3B1-3DE6B397CEE8}"/>
+    <hyperlink ref="C107" r:id="rId206" xr:uid="{90005906-5B81-474A-BF37-224E49652250}"/>
+    <hyperlink ref="B108" r:id="rId207" xr:uid="{D982FECE-E214-41C4-9091-B2CC6E3A3D0A}"/>
+    <hyperlink ref="C108" r:id="rId208" xr:uid="{290BE959-AC99-4E2B-81A3-9AFB4C065DAB}"/>
+    <hyperlink ref="B109" r:id="rId209" xr:uid="{FA09655C-B450-4725-8136-B3E87592102D}"/>
+    <hyperlink ref="C109" r:id="rId210" xr:uid="{8E9C51DC-D370-4782-86F7-43652E1F00CF}"/>
+    <hyperlink ref="B110" r:id="rId211" xr:uid="{2F8EFF12-CDEF-443E-B71A-DD85DF00897C}"/>
+    <hyperlink ref="C110" r:id="rId212" xr:uid="{44C0954B-8139-4BDB-8DDF-183376CF02B6}"/>
+    <hyperlink ref="B111" r:id="rId213" xr:uid="{59D3C11B-68F1-48EC-BD9B-2E1E682CCE5F}"/>
+    <hyperlink ref="C111" r:id="rId214" xr:uid="{564B5E84-88FC-4E70-9E1C-07D43C571AE4}"/>
+    <hyperlink ref="B112" r:id="rId215" xr:uid="{E3A8F40D-C471-4DF5-9282-FA69DA7561D7}"/>
+    <hyperlink ref="C112" r:id="rId216" xr:uid="{8A83C8A3-1228-4363-948A-A8F13C47B5EE}"/>
+    <hyperlink ref="B113" r:id="rId217" xr:uid="{DF807889-C433-4D78-BD47-9A0EC38E373D}"/>
+    <hyperlink ref="C113" r:id="rId218" xr:uid="{2D38494E-565F-4257-B86E-67DB7F4292A6}"/>
+    <hyperlink ref="B114" r:id="rId219" xr:uid="{C004148C-852E-40BF-9E8B-B7AF702048E1}"/>
+    <hyperlink ref="C114" r:id="rId220" xr:uid="{FD65924E-3DCA-4AE2-AA19-A797A9A7F607}"/>
+    <hyperlink ref="B115" r:id="rId221" xr:uid="{709A5AF4-3641-4D9F-A0EE-F749C2644793}"/>
+    <hyperlink ref="C115" r:id="rId222" xr:uid="{230250F3-6E75-4E39-9228-35E87454C9CE}"/>
+    <hyperlink ref="B116" r:id="rId223" xr:uid="{9B9B660F-2C07-44E7-BEDC-6064BD0ECB37}"/>
+    <hyperlink ref="C116" r:id="rId224" xr:uid="{55AC6754-815B-4201-A0DC-BC7DBFD8EA90}"/>
+    <hyperlink ref="B117" r:id="rId225" xr:uid="{CB9AB77B-9769-4220-87AF-5FE8241D4441}"/>
+    <hyperlink ref="C117" r:id="rId226" xr:uid="{1FF63A19-74D1-4466-9B46-5F41717293AE}"/>
+    <hyperlink ref="B118" r:id="rId227" xr:uid="{1F35D364-1C5B-438E-B439-F755903B92DA}"/>
+    <hyperlink ref="C118" r:id="rId228" xr:uid="{C2C0853F-5FAF-492A-A111-1AE9B881FCEC}"/>
+    <hyperlink ref="B119" r:id="rId229" xr:uid="{ECA12D9D-8EA6-4B23-887F-C6868AD69E8F}"/>
+    <hyperlink ref="C119" r:id="rId230" xr:uid="{67C0EAF0-E00C-434B-971D-42994C893439}"/>
+    <hyperlink ref="B120" r:id="rId231" xr:uid="{960BE407-23B6-4929-9EFF-53FC21D2CD0D}"/>
+    <hyperlink ref="C120" r:id="rId232" xr:uid="{4260F9EE-D8F1-40A1-A4F7-D4D41A52E59D}"/>
+    <hyperlink ref="B121" r:id="rId233" xr:uid="{25B17E25-82A4-48F5-97A0-A10DDADE30AC}"/>
+    <hyperlink ref="C121" r:id="rId234" xr:uid="{D690BAEA-98C9-4A18-BF04-8955A070A73A}"/>
+    <hyperlink ref="B122" r:id="rId235" xr:uid="{56412FF0-C201-4FE5-9394-E01CDD2F01C1}"/>
+    <hyperlink ref="C122" r:id="rId236" xr:uid="{569ED926-C04A-41D1-AA40-8B0EDF3F9BFE}"/>
+    <hyperlink ref="B123" r:id="rId237" xr:uid="{D2686775-CFC2-4F6A-BCD5-7016F3A96CBE}"/>
+    <hyperlink ref="C123" r:id="rId238" xr:uid="{D45F49B7-4EB4-492F-8613-02D70A86721B}"/>
+    <hyperlink ref="B124" r:id="rId239" xr:uid="{97CB2552-449E-4010-BB6C-8B8BDCDFFC3D}"/>
+    <hyperlink ref="C124" r:id="rId240" xr:uid="{F8EB9588-33E1-49E5-9FC1-A0E0ED53BCA7}"/>
+    <hyperlink ref="B125" r:id="rId241" xr:uid="{A5517361-A0EB-4FE6-A55C-3C40271A28E5}"/>
+    <hyperlink ref="C125" r:id="rId242" xr:uid="{56FACA9D-75CD-429F-872A-635A00ED7283}"/>
+    <hyperlink ref="B126" r:id="rId243" xr:uid="{9E3E912E-9428-44FA-A65A-2D020804D460}"/>
+    <hyperlink ref="C126" r:id="rId244" xr:uid="{C2752C5F-0D55-49CD-93CF-DBAFD4DD3EF2}"/>
+    <hyperlink ref="B127" r:id="rId245" xr:uid="{692925E9-6708-473D-8633-30246857531F}"/>
+    <hyperlink ref="C127" r:id="rId246" xr:uid="{3FDAD984-F312-4E72-8F6E-08FAA4A506E1}"/>
+    <hyperlink ref="B128" r:id="rId247" xr:uid="{16D1E02A-5749-494A-9103-545649A15993}"/>
+    <hyperlink ref="C128" r:id="rId248" xr:uid="{5E2D484D-6947-4D64-893A-CAC5DA639680}"/>
+    <hyperlink ref="B129" r:id="rId249" xr:uid="{C58EEF4D-CECA-42F2-A587-8F07F937317C}"/>
+    <hyperlink ref="C129" r:id="rId250" xr:uid="{DD415EDE-57E8-4394-A65C-DDA4343D2946}"/>
+    <hyperlink ref="B130" r:id="rId251" xr:uid="{0F928A58-6707-41A6-8C0E-2FB4B5D34FAF}"/>
+    <hyperlink ref="C130" r:id="rId252" xr:uid="{70CF5C6F-2229-49A4-8E7D-B5289F8C9E56}"/>
+    <hyperlink ref="B131" r:id="rId253" xr:uid="{B736AEE7-2F32-4014-9F8C-B2245CFB9C96}"/>
+    <hyperlink ref="C131" r:id="rId254" xr:uid="{127533C6-36EF-46AA-8347-A73A39CE6E26}"/>
+    <hyperlink ref="B132" r:id="rId255" xr:uid="{CE34DE48-A218-4067-9126-1E775FDB8E35}"/>
+    <hyperlink ref="C132" r:id="rId256" xr:uid="{13F2A63D-B3F6-4823-A896-8B84606CBE70}"/>
+    <hyperlink ref="B133" r:id="rId257" xr:uid="{51883B75-C3E4-4A63-A603-8F97830D2494}"/>
+    <hyperlink ref="C133" r:id="rId258" xr:uid="{5E76FCC3-3080-4474-B99C-1B47B6EC7167}"/>
+    <hyperlink ref="B134" r:id="rId259" xr:uid="{668A9500-D888-44E1-83CA-5A9B42EEAF7F}"/>
+    <hyperlink ref="C134" r:id="rId260" xr:uid="{34AF21FC-B155-4C85-9E9D-1185C9EF7C8A}"/>
+    <hyperlink ref="B135" r:id="rId261" xr:uid="{1C18484B-D80E-40BC-96DE-FEC784BD0315}"/>
+    <hyperlink ref="C135" r:id="rId262" xr:uid="{6684491A-B802-4CBA-BD0A-C0251FC0A748}"/>
+    <hyperlink ref="B136" r:id="rId263" xr:uid="{4B7F978E-6A1B-40E2-93FB-E5CC478C6276}"/>
+    <hyperlink ref="C136" r:id="rId264" xr:uid="{7FBEFD9D-65C1-4C3E-AD53-647FE2B75B12}"/>
+    <hyperlink ref="B137" r:id="rId265" xr:uid="{E9FA4651-7C77-425A-A1B4-DEC5DBD71666}"/>
+    <hyperlink ref="C137" r:id="rId266" xr:uid="{AA8C1C2A-AB12-450B-A77F-63AB1AB0D0B9}"/>
+    <hyperlink ref="B138" r:id="rId267" xr:uid="{18334A0F-3545-419C-8308-CA76D3FD9BC7}"/>
+    <hyperlink ref="C138" r:id="rId268" xr:uid="{3FCBCB95-5E69-4710-9161-32A93A9C022E}"/>
+    <hyperlink ref="B139" r:id="rId269" xr:uid="{A1ABB01E-74E8-4E1B-85BE-2A7E27C247DE}"/>
+    <hyperlink ref="C139" r:id="rId270" xr:uid="{6FE68C6E-DF60-4843-BD71-90B9675C92A2}"/>
+    <hyperlink ref="B140" r:id="rId271" xr:uid="{F433BA08-82B7-4E7F-A446-648214C28460}"/>
+    <hyperlink ref="C140" r:id="rId272" xr:uid="{8BD45F8F-19DC-49EF-ACAC-008DEB9DC294}"/>
+    <hyperlink ref="B141" r:id="rId273" xr:uid="{1E2C6AB0-F8C2-489D-A591-BD48C57A9EDD}"/>
+    <hyperlink ref="B142" r:id="rId274" xr:uid="{90A67F61-6E80-4937-8E74-0798C251BD17}"/>
+    <hyperlink ref="C142" r:id="rId275" xr:uid="{A3ECE44D-EDB1-4416-AEAA-F8403F08C4CF}"/>
+    <hyperlink ref="B143" r:id="rId276" xr:uid="{6EF29D9C-A292-44ED-BB7C-A11917D8754F}"/>
+    <hyperlink ref="C143" r:id="rId277" xr:uid="{FED16ECD-8F15-4E5A-8198-ABE219D99482}"/>
+    <hyperlink ref="B144" r:id="rId278" xr:uid="{ED35D47E-4993-4C06-9E9A-EC0620C49AFC}"/>
+    <hyperlink ref="C144" r:id="rId279" xr:uid="{33644E25-B971-48D5-BCC1-0E8E11AC3B74}"/>
+    <hyperlink ref="B145" r:id="rId280" xr:uid="{883539EF-A1ED-4CF5-B5B4-4E13F4D4CEAD}"/>
+    <hyperlink ref="C145" r:id="rId281" xr:uid="{4E18FC9F-174D-4992-BCA7-8AD6D8D54415}"/>
+    <hyperlink ref="B146" r:id="rId282" xr:uid="{2F023D64-CB22-4AC2-A44F-CE9B4A947410}"/>
+    <hyperlink ref="C146" r:id="rId283" xr:uid="{A9EFBC38-E659-48C5-AB7A-37DD94627A53}"/>
+    <hyperlink ref="B147" r:id="rId284" xr:uid="{3A963F3E-10EB-42E0-8741-DEDC8F76F245}"/>
+    <hyperlink ref="C147" r:id="rId285" xr:uid="{445E7BB1-E8E5-4413-B02F-5863A45794A5}"/>
+    <hyperlink ref="B148" r:id="rId286" xr:uid="{5CC88AC6-3DEB-45F8-ABB3-A4FB089202C5}"/>
+    <hyperlink ref="C148" r:id="rId287" xr:uid="{0F480876-A296-4B6F-9A19-28EE2ED5C9AB}"/>
+    <hyperlink ref="B149" r:id="rId288" xr:uid="{440B2366-3DAC-4D1B-A1A0-4AFAC97F34FA}"/>
+    <hyperlink ref="C149" r:id="rId289" xr:uid="{07705DB3-4C9C-4660-96C1-3C45B3FF979B}"/>
+    <hyperlink ref="B150" r:id="rId290" xr:uid="{E0F131DA-540C-4077-B1C1-8433BA3F7E20}"/>
+    <hyperlink ref="B151" r:id="rId291" xr:uid="{571BEC2B-1F73-482F-A87C-6B7993D96A55}"/>
+    <hyperlink ref="C151" r:id="rId292" xr:uid="{E719ED9A-5F72-480C-805B-EE79AB43A75B}"/>
+    <hyperlink ref="B152" r:id="rId293" xr:uid="{E2463D3B-E626-40B5-9EE4-165B1040F071}"/>
+    <hyperlink ref="C152" r:id="rId294" xr:uid="{F231B3BC-58AC-4A4C-8542-908E9F7EF465}"/>
+    <hyperlink ref="B153" r:id="rId295" xr:uid="{14C0544E-5A5C-4DA4-A9B3-40ACD2082D6B}"/>
+    <hyperlink ref="C153" r:id="rId296" xr:uid="{93F4CB86-3023-4A14-B130-24FF96DF71B2}"/>
+    <hyperlink ref="B154" r:id="rId297" xr:uid="{71B8061F-FA8C-4DB3-A0F0-A8EA96E31ED9}"/>
+    <hyperlink ref="C154" r:id="rId298" xr:uid="{D307EDBB-5417-4431-92E0-652D462ADB5B}"/>
+    <hyperlink ref="B155" r:id="rId299" xr:uid="{42A1361D-C0E2-48AA-B695-C422614842D0}"/>
+    <hyperlink ref="B156" r:id="rId300" xr:uid="{889A57A8-1543-429D-93E2-C563E2BCB13E}"/>
+    <hyperlink ref="C156" r:id="rId301" xr:uid="{C1339957-6F81-4BAB-86FF-B06D992C2A49}"/>
+    <hyperlink ref="B157" r:id="rId302" xr:uid="{D294F5F8-0D30-4525-B78F-B0CBCA52012B}"/>
+    <hyperlink ref="C157" r:id="rId303" xr:uid="{AA6546CB-5B66-4C61-9D0E-1DF4B4AEC98A}"/>
+    <hyperlink ref="B158" r:id="rId304" xr:uid="{8FFAD697-94DD-4924-B37C-8433704AA92C}"/>
+    <hyperlink ref="C158" r:id="rId305" xr:uid="{6D85E3EB-2AB8-43D1-8AD4-07EF64CE8FF7}"/>
+    <hyperlink ref="B159" r:id="rId306" xr:uid="{2A7911CE-5BC0-4204-98A2-F735620E7359}"/>
+    <hyperlink ref="C159" r:id="rId307" xr:uid="{C1DD1382-004D-44EE-BB9F-44D09C092C96}"/>
+    <hyperlink ref="B160" r:id="rId308" xr:uid="{5101AE15-FF1E-415F-A8A5-6530534B321D}"/>
+    <hyperlink ref="C160" r:id="rId309" xr:uid="{8CD19257-B783-486E-ACCB-BF6D1F6B23E4}"/>
+    <hyperlink ref="B161" r:id="rId310" xr:uid="{9BC5D252-1FCC-4E5B-94A0-A925DCF9B218}"/>
+    <hyperlink ref="C161" r:id="rId311" xr:uid="{57303AF5-F079-4488-8058-F9A067C1757C}"/>
+    <hyperlink ref="B162" r:id="rId312" xr:uid="{C93C69D8-1F74-418E-A1F0-9E774870EAFC}"/>
+    <hyperlink ref="C162" r:id="rId313" xr:uid="{6EF0B26C-36E5-4561-9E3A-411D0728A6ED}"/>
+    <hyperlink ref="B163" r:id="rId314" xr:uid="{195D8C4B-61B2-485C-8EC1-30C8F403B598}"/>
+    <hyperlink ref="C163" r:id="rId315" xr:uid="{B8995C42-28A4-437D-984B-6F48BADFEBF1}"/>
+    <hyperlink ref="B164" r:id="rId316" xr:uid="{CDE08DAF-1C10-4A55-AEBD-45939D0F5965}"/>
+    <hyperlink ref="C164" r:id="rId317" xr:uid="{7225DFE7-E4E4-4656-B2B6-20EC6F4082D6}"/>
+    <hyperlink ref="B165" r:id="rId318" xr:uid="{7CB80593-ABBD-4530-8004-2886CC534244}"/>
+    <hyperlink ref="C165" r:id="rId319" xr:uid="{22908D27-097A-43C4-AD66-7CFC03A5AC15}"/>
+    <hyperlink ref="B166" r:id="rId320" xr:uid="{E22C07AC-4067-4502-9EA6-0B77F246BF69}"/>
+    <hyperlink ref="C166" r:id="rId321" xr:uid="{BEDFB12A-5249-4E6F-B0FC-D4F7CA8638E6}"/>
+    <hyperlink ref="B167" r:id="rId322" xr:uid="{B8567387-EA36-4800-8DB7-C54596984054}"/>
+    <hyperlink ref="C167" r:id="rId323" xr:uid="{966AFF68-B7AD-431F-81EF-4F041142EF0A}"/>
+    <hyperlink ref="B168" r:id="rId324" xr:uid="{5DB13B7F-4746-4E43-A7CD-961B26689464}"/>
+    <hyperlink ref="C168" r:id="rId325" xr:uid="{AE97671B-C0F2-44C1-A722-4BBEE5B03926}"/>
+    <hyperlink ref="B169" r:id="rId326" xr:uid="{338C549D-0A97-4EA6-A831-14637F44670F}"/>
+    <hyperlink ref="C169" r:id="rId327" xr:uid="{752A960E-7C1A-4BD8-A89C-C13C593126C1}"/>
+    <hyperlink ref="B170" r:id="rId328" xr:uid="{F99585A2-1793-4D5B-A1C3-9BA6B13C92E9}"/>
+    <hyperlink ref="C170" r:id="rId329" xr:uid="{F771815D-30D5-421E-B851-9BD687A9D6E0}"/>
+    <hyperlink ref="B171" r:id="rId330" xr:uid="{3B2FCF61-0BD5-491C-A950-D419C8EF8F85}"/>
+    <hyperlink ref="C171" r:id="rId331" xr:uid="{DB335182-89DE-4739-A7F2-ED9676B77C27}"/>
+    <hyperlink ref="B172" r:id="rId332" xr:uid="{6A633FA9-EF46-41F3-AD40-11AD0A4ACD6C}"/>
+    <hyperlink ref="C172" r:id="rId333" xr:uid="{19E7AB2B-C83E-4B28-B903-8A75FE33C3CC}"/>
+    <hyperlink ref="B173" r:id="rId334" xr:uid="{6B60D4C1-AB65-43D2-B94F-90093398268A}"/>
+    <hyperlink ref="C173" r:id="rId335" xr:uid="{C5AF515D-3B54-4701-90B3-E91D219C16EB}"/>
+    <hyperlink ref="B174" r:id="rId336" xr:uid="{9FF9BA3D-F015-4B35-B4B6-874B451DE484}"/>
+    <hyperlink ref="C174" r:id="rId337" xr:uid="{28E45255-5520-42E4-90D0-1CEF22A429FE}"/>
+    <hyperlink ref="B175" r:id="rId338" xr:uid="{E7E6B349-1935-470E-840A-63287D06AB42}"/>
+    <hyperlink ref="C175" r:id="rId339" xr:uid="{FBD969F7-D5EA-4F60-84C0-E91DC91CF1ED}"/>
+    <hyperlink ref="B176" r:id="rId340" xr:uid="{1574DACD-6339-49B4-B3D6-4B0A9347ECA5}"/>
+    <hyperlink ref="C176" r:id="rId341" xr:uid="{981D2352-C227-4CAD-BB4A-E48F01D0D836}"/>
+    <hyperlink ref="B177" r:id="rId342" xr:uid="{18936DA0-DC74-4379-8AE5-8C71D0DF18B9}"/>
+    <hyperlink ref="C177" r:id="rId343" xr:uid="{80EA0901-3A1E-410D-859D-AC5B9197FD8B}"/>
+    <hyperlink ref="B178" r:id="rId344" xr:uid="{B062BAC5-C74E-483F-91C8-480F9A5A833A}"/>
+    <hyperlink ref="C178" r:id="rId345" xr:uid="{C51E3AE2-60D2-4779-8A97-2A360EAEE859}"/>
+    <hyperlink ref="B179" r:id="rId346" xr:uid="{8020A3F0-F83A-44D7-AE00-D13DA82F8D5D}"/>
+    <hyperlink ref="C179" r:id="rId347" xr:uid="{FC047538-AF55-406B-80DE-E7735C38C485}"/>
+    <hyperlink ref="B180" r:id="rId348" xr:uid="{0BC86702-A7F4-47BD-86D9-B8EE800E316A}"/>
+    <hyperlink ref="C180" r:id="rId349" xr:uid="{597C7092-5FE8-46FF-B914-1D35923AC587}"/>
+    <hyperlink ref="B181" r:id="rId350" xr:uid="{63219906-6C21-4D3A-A8C1-28F1E4A1A3B3}"/>
+    <hyperlink ref="C181" r:id="rId351" xr:uid="{C3CDBCCE-C80E-4202-AC40-EA938F7907A1}"/>
+    <hyperlink ref="B182" r:id="rId352" xr:uid="{D261B4C9-81A0-4106-B25A-361225A3C78C}"/>
+    <hyperlink ref="C182" r:id="rId353" xr:uid="{B97BD9A4-B849-4D4E-B730-1A70C853662F}"/>
+    <hyperlink ref="B183" r:id="rId354" xr:uid="{54FD6B33-529A-42DE-A344-776EB235A820}"/>
+    <hyperlink ref="C183" r:id="rId355" xr:uid="{52A31490-826D-40ED-B76E-A2987E9AEAB2}"/>
+    <hyperlink ref="B184" r:id="rId356" xr:uid="{936DCA19-AB6C-4AC0-A7E2-2CF901637DB1}"/>
+    <hyperlink ref="C184" r:id="rId357" xr:uid="{F5312931-86CC-4C99-B328-C5E9571A4AA0}"/>
+    <hyperlink ref="B185" r:id="rId358" xr:uid="{14D016ED-EA5E-42A1-B0A9-063913FCE2C9}"/>
+    <hyperlink ref="C185" r:id="rId359" xr:uid="{956B6475-D1A7-4A27-8003-F42A10189009}"/>
+    <hyperlink ref="B186" r:id="rId360" xr:uid="{9F41E6A0-D081-44F0-9BC7-52832975D38C}"/>
+    <hyperlink ref="C186" r:id="rId361" xr:uid="{F1EEA16D-BD96-43B3-8A6E-928B81E3E4C2}"/>
+    <hyperlink ref="B187" r:id="rId362" xr:uid="{88542C8D-1659-4ED9-AF34-DCF9A11F2CB4}"/>
+    <hyperlink ref="C187" r:id="rId363" xr:uid="{EE788CD6-82E9-4D1C-A70D-D5D45766F24A}"/>
+    <hyperlink ref="B188" r:id="rId364" xr:uid="{8F8A96FD-185D-4FB7-A7A6-3B1E679CF5AF}"/>
+    <hyperlink ref="C188" r:id="rId365" xr:uid="{26159B21-B1F9-4CED-ACA9-4F21A6B60CC9}"/>
+    <hyperlink ref="B189" r:id="rId366" xr:uid="{D330D96C-F505-48F6-A5FF-4FABBCC0B10E}"/>
+    <hyperlink ref="C189" r:id="rId367" xr:uid="{F5FD7C6F-7DF3-4D6A-A204-5C457542C0CD}"/>
+    <hyperlink ref="B190" r:id="rId368" xr:uid="{A5F1144E-22CB-4A45-856E-409E2BEEDF40}"/>
+    <hyperlink ref="C190" r:id="rId369" xr:uid="{083B56D9-3810-4076-A625-96BFDB9DCC59}"/>
+    <hyperlink ref="B191" r:id="rId370" xr:uid="{820BE66A-EBF9-4E30-98BC-C1B8BC44F6CC}"/>
+    <hyperlink ref="C191" r:id="rId371" xr:uid="{C756FE2A-80E6-40C7-A863-AD6C7465E561}"/>
+    <hyperlink ref="B192" r:id="rId372" xr:uid="{AD9EE8E1-228E-4583-9FD9-24BCF0EA57A7}"/>
+    <hyperlink ref="C192" r:id="rId373" xr:uid="{9B5FE41F-160C-4623-BEDB-5C19B41386FB}"/>
+    <hyperlink ref="B193" r:id="rId374" xr:uid="{E9AB2943-7F6D-4379-B612-05E39248E953}"/>
+    <hyperlink ref="C193" r:id="rId375" xr:uid="{90A89652-3E75-42B5-948F-D6AFC8D56B5A}"/>
+    <hyperlink ref="C194" r:id="rId376" xr:uid="{5B6D9518-AF56-4073-948D-7A4C654D804B}"/>
+    <hyperlink ref="B195" r:id="rId377" xr:uid="{19B2B711-5A27-4DF6-BF49-4F707181D6F6}"/>
+    <hyperlink ref="C195" r:id="rId378" xr:uid="{81DE790F-7D49-425E-B540-CF0ACB65141D}"/>
+    <hyperlink ref="B196" r:id="rId379" xr:uid="{CCF04881-79CA-4C3C-939E-F2A1C0FA963B}"/>
+    <hyperlink ref="C196" r:id="rId380" xr:uid="{A7E0E206-9AE2-4AC3-AF38-F42F5461D33D}"/>
+    <hyperlink ref="B197" r:id="rId381" xr:uid="{22C1ECE0-B580-49E5-BD5C-E7A97CFEA480}"/>
+    <hyperlink ref="C197" r:id="rId382" xr:uid="{8C457F70-E959-4962-BF4B-859B93C24E5E}"/>
+    <hyperlink ref="B198" r:id="rId383" xr:uid="{DD66A006-799B-4256-9E7C-2FD09B1ED256}"/>
+    <hyperlink ref="C198" r:id="rId384" xr:uid="{11D0FA17-B1BD-4E17-9D20-CB1AD558DB14}"/>
+    <hyperlink ref="B199" r:id="rId385" xr:uid="{B8F33932-ECB9-4C93-964F-FA57FEAACC19}"/>
+    <hyperlink ref="C199" r:id="rId386" xr:uid="{49B9E5CB-05D8-462A-860D-4A8690A6914F}"/>
+    <hyperlink ref="B200" r:id="rId387" xr:uid="{2295DFF9-CB25-4D70-BA70-94FA09756F50}"/>
+    <hyperlink ref="C200" r:id="rId388" xr:uid="{57F8D36B-5B69-4C95-86F2-B872FE15B12A}"/>
+    <hyperlink ref="B201" r:id="rId389" xr:uid="{12F6E8F9-1ABF-4BD9-86DE-02C8A538647E}"/>
+    <hyperlink ref="C201" r:id="rId390" xr:uid="{A2D92BC5-B025-4377-90A6-7D55288F958E}"/>
+    <hyperlink ref="B202" r:id="rId391" xr:uid="{F7A778DA-C7E3-4243-974D-C384F7C33E6A}"/>
+    <hyperlink ref="C202" r:id="rId392" xr:uid="{1B900A1B-9BE6-42C5-8B18-4330C85DE7CF}"/>
+    <hyperlink ref="B203" r:id="rId393" xr:uid="{876B4851-F9BF-4A57-B4CC-B241783ACCAB}"/>
+    <hyperlink ref="C203" r:id="rId394" xr:uid="{29483207-ABBC-4F99-B9D7-23B7D3B20BBC}"/>
+    <hyperlink ref="B204" r:id="rId395" xr:uid="{E10A5B4F-189A-4CE3-A189-D4696958DBAF}"/>
+    <hyperlink ref="C204" r:id="rId396" xr:uid="{FE03C133-2D23-47B9-9F46-510045C24669}"/>
+    <hyperlink ref="B205" r:id="rId397" xr:uid="{A6872E58-C478-4781-9F11-F79A38DBCF1C}"/>
+    <hyperlink ref="C205" r:id="rId398" xr:uid="{DE3072A4-12C5-4F67-86AB-655B3C68C18C}"/>
+    <hyperlink ref="B206" r:id="rId399" xr:uid="{DB22F987-84BB-4B3B-A564-8CD8B8F25EE8}"/>
+    <hyperlink ref="C206" r:id="rId400" xr:uid="{240B94EC-78CE-47AE-96EF-5BE3A567777B}"/>
+    <hyperlink ref="B207" r:id="rId401" xr:uid="{A29A2D15-FB80-449A-8E85-A0421E13C2E6}"/>
+    <hyperlink ref="C207" r:id="rId402" xr:uid="{B9304C1F-0062-42F1-867A-2D552F64C228}"/>
+    <hyperlink ref="B208" r:id="rId403" xr:uid="{8FF51006-9A58-4783-B3C4-EDFAB4AF7F39}"/>
+    <hyperlink ref="C208" r:id="rId404" xr:uid="{175F36AA-0B4E-4CE1-A46B-910896D83C67}"/>
+    <hyperlink ref="B209" r:id="rId405" xr:uid="{650D6194-8A60-477B-858E-5B743681D2A0}"/>
+    <hyperlink ref="C209" r:id="rId406" xr:uid="{25C823D8-C72C-4D62-86C9-16FDFB458EA6}"/>
+    <hyperlink ref="B210" r:id="rId407" xr:uid="{BB6A6D96-2748-40EF-AAF8-2491AFA3F667}"/>
+    <hyperlink ref="C210" r:id="rId408" xr:uid="{295662E2-411E-453F-8E6D-15667EBCE098}"/>
+    <hyperlink ref="B211" r:id="rId409" xr:uid="{CB02F9C6-0FCC-4F0E-A873-1D9F19C35204}"/>
+    <hyperlink ref="C211" r:id="rId410" xr:uid="{020D20ED-65C2-4A55-AFF2-E78808861886}"/>
+    <hyperlink ref="B212" r:id="rId411" xr:uid="{D2E2E4A5-9C9A-40EE-AF92-116F99811D40}"/>
+    <hyperlink ref="C212" r:id="rId412" xr:uid="{E5E5C5EB-F972-405D-9048-086010E6F9F0}"/>
+    <hyperlink ref="B213" r:id="rId413" xr:uid="{520F7394-F3FD-466D-891E-2D63C62A6417}"/>
+    <hyperlink ref="C213" r:id="rId414" xr:uid="{717282E9-A128-412C-BE69-D0C9987FDBD5}"/>
+    <hyperlink ref="B214" r:id="rId415" xr:uid="{210A3D91-FE56-42C5-B9BC-CFBFA9BC6C35}"/>
+    <hyperlink ref="C214" r:id="rId416" xr:uid="{058ACCEF-DBBF-4D68-BEF4-DDEAC6538CBC}"/>
+    <hyperlink ref="B215" r:id="rId417" xr:uid="{10FB831D-50C7-4CAE-A5DE-7BCF863731E2}"/>
+    <hyperlink ref="C215" r:id="rId418" xr:uid="{1B828C1F-EEC4-41CC-84C9-4D0CE7EDABD0}"/>
+    <hyperlink ref="B216" r:id="rId419" xr:uid="{FD4796BF-C354-458A-AF33-51358C67294D}"/>
+    <hyperlink ref="C216" r:id="rId420" xr:uid="{687C15CD-D57A-4393-A206-E2CE919D0B20}"/>
+    <hyperlink ref="B217" r:id="rId421" xr:uid="{6E35D47B-B3B8-4C7D-AA26-DA73870F568C}"/>
+    <hyperlink ref="C217" r:id="rId422" xr:uid="{2653B1EE-9775-4471-AA15-5C51C9F466B0}"/>
+    <hyperlink ref="B218" r:id="rId423" xr:uid="{5C545017-9B33-4F39-8053-55728AA576C7}"/>
+    <hyperlink ref="C218" r:id="rId424" xr:uid="{FB52B0EE-E490-430F-8A29-73D8095B48A1}"/>
+    <hyperlink ref="B219" r:id="rId425" xr:uid="{6E37A9C4-C88C-4F92-9C80-C8D57BADE2E8}"/>
+    <hyperlink ref="C219" r:id="rId426" xr:uid="{76670F91-8F9B-45FE-AB8F-14001F09EEE6}"/>
+    <hyperlink ref="B220" r:id="rId427" xr:uid="{A925688F-37BE-4CCC-8A47-A9B8F046571F}"/>
+    <hyperlink ref="C220" r:id="rId428" xr:uid="{6D8E06CE-74BC-4B14-A47E-800910B2483C}"/>
+    <hyperlink ref="B221" r:id="rId429" xr:uid="{11AB6313-983C-4260-BC8A-CFCBE68BD05A}"/>
+    <hyperlink ref="C221" r:id="rId430" xr:uid="{D2C2224F-1474-457A-9F4E-11FE3298EF65}"/>
+    <hyperlink ref="B222" r:id="rId431" xr:uid="{1E736439-50D9-4D24-9540-822EA3914405}"/>
+    <hyperlink ref="C222" r:id="rId432" xr:uid="{F5C59A3E-155E-46B4-B80E-81D870A430B3}"/>
+    <hyperlink ref="B223" r:id="rId433" xr:uid="{854713DB-D522-475D-AAE2-8070CFC75E79}"/>
+    <hyperlink ref="C223" r:id="rId434" xr:uid="{12DAC9F7-01EB-45C3-B03B-5A43AA73CEBD}"/>
+    <hyperlink ref="B224" r:id="rId435" xr:uid="{1377AF15-6D98-4A1E-A836-59DEF0265BE1}"/>
+    <hyperlink ref="C224" r:id="rId436" xr:uid="{E59DE0CD-F857-4733-8DB0-AE1E0CA6ACC0}"/>
+    <hyperlink ref="B225" r:id="rId437" xr:uid="{CF170E53-0685-4D07-8A5A-0CC57C43D266}"/>
+    <hyperlink ref="C225" r:id="rId438" xr:uid="{1478FE89-D5D1-4FEA-B501-2A6324A409DE}"/>
+    <hyperlink ref="B226" r:id="rId439" xr:uid="{57B650D0-D082-477D-85A1-7B0502DB8433}"/>
+    <hyperlink ref="C226" r:id="rId440" xr:uid="{2594F506-286C-4C68-A6E7-2E2273F3CF9F}"/>
+    <hyperlink ref="B227" r:id="rId441" xr:uid="{7AEF2631-E85C-4CD5-B428-31360B144C5E}"/>
+    <hyperlink ref="C227" r:id="rId442" xr:uid="{50631D5E-B49C-4725-B9C6-E15FF1F8B6AD}"/>
+    <hyperlink ref="B228" r:id="rId443" xr:uid="{B7A2173B-9347-41D5-9F19-3379CC68364D}"/>
+    <hyperlink ref="C228" r:id="rId444" xr:uid="{3AFE417D-9CFF-42A2-B58F-DB872357ED5E}"/>
+    <hyperlink ref="B229" r:id="rId445" xr:uid="{DFD0D929-D477-4D09-8F73-B69EC8AC5BE1}"/>
+    <hyperlink ref="C229" r:id="rId446" xr:uid="{6C0E2448-B35E-43B0-BEE0-79236A9EDA64}"/>
+    <hyperlink ref="B230" r:id="rId447" xr:uid="{5536DEBE-4D05-48A0-B533-85A248B72B07}"/>
+    <hyperlink ref="C230" r:id="rId448" xr:uid="{D17B2A1C-0486-4B00-95AD-9F8C8B8058A4}"/>
+    <hyperlink ref="B231" r:id="rId449" xr:uid="{C6EB74CE-142D-4E42-88CC-3E295454860D}"/>
+    <hyperlink ref="C231" r:id="rId450" xr:uid="{3F9D8868-4ABB-4000-AD02-37B0ED618937}"/>
+    <hyperlink ref="B232" r:id="rId451" xr:uid="{ECE6BB54-4C56-45E5-85BB-34B6506A112F}"/>
+    <hyperlink ref="C232" r:id="rId452" xr:uid="{33998E8B-16D8-43CF-BAEC-C892AC82AC42}"/>
+    <hyperlink ref="B233" r:id="rId453" xr:uid="{76DF6994-82E7-4059-A63A-8C8D3A634BB4}"/>
+    <hyperlink ref="C233" r:id="rId454" xr:uid="{AB8BBA20-5CD2-4A2B-9009-C77351AE763F}"/>
+    <hyperlink ref="B234" r:id="rId455" xr:uid="{C761DBEF-9BB1-4E15-8461-BCA520F6184B}"/>
+    <hyperlink ref="C234" r:id="rId456" xr:uid="{067A652F-8025-4953-8A1F-F06B0AD02F01}"/>
+    <hyperlink ref="B235" r:id="rId457" xr:uid="{5DB4ADB6-A497-4338-997F-C341BCE2C126}"/>
+    <hyperlink ref="C235" r:id="rId458" xr:uid="{C9288E36-B6D4-4975-B28F-F24E81EF55EC}"/>
+    <hyperlink ref="B236" r:id="rId459" xr:uid="{4C03FF83-2413-4147-8E40-621E681B996A}"/>
+    <hyperlink ref="C236" r:id="rId460" xr:uid="{897EC4C5-2D05-423F-9312-15ABEA9B23D3}"/>
+    <hyperlink ref="B237" r:id="rId461" xr:uid="{460B0BBD-CDA2-4F88-A7EB-7F6104ABFDCB}"/>
+    <hyperlink ref="C237" r:id="rId462" xr:uid="{D29DE0E2-131A-4E8C-9C64-18ACD2DC66AF}"/>
+    <hyperlink ref="B238" r:id="rId463" xr:uid="{A781DE4F-D98A-4614-89BC-2E04D4B75B57}"/>
+    <hyperlink ref="C238" r:id="rId464" xr:uid="{6F7708E9-F02F-41D6-B5F7-A5D1434B71FC}"/>
+    <hyperlink ref="B239" r:id="rId465" xr:uid="{B28F63B4-E4F4-4065-979F-CDF35105467A}"/>
+    <hyperlink ref="C239" r:id="rId466" xr:uid="{86F9AEF8-22B2-4EBF-9056-7C63B8935609}"/>
+    <hyperlink ref="B240" r:id="rId467" xr:uid="{9368C4F0-2DEE-4BA1-86CA-7CE71BFDB3AC}"/>
+    <hyperlink ref="B241" r:id="rId468" xr:uid="{F2C94A5B-9AC1-4024-BC42-DA67B68D1C31}"/>
+    <hyperlink ref="C241" r:id="rId469" xr:uid="{8655EBD8-EA8D-4383-B013-364A43C5EBC8}"/>
+    <hyperlink ref="B242" r:id="rId470" xr:uid="{D06F1731-A638-487A-9B99-B1CF2C73FA95}"/>
+    <hyperlink ref="C242" r:id="rId471" xr:uid="{E8E4A075-F384-4DD2-A1FB-A4953F6701CE}"/>
+    <hyperlink ref="B243" r:id="rId472" xr:uid="{2F9FC70A-9F50-46CE-A939-E4CCCF4F9D04}"/>
+    <hyperlink ref="C243" r:id="rId473" xr:uid="{82B0AB7E-7643-455A-9D3A-15D65647DBA4}"/>
+    <hyperlink ref="B244" r:id="rId474" xr:uid="{65A21D0C-C098-4CA7-8EAF-61B83771C123}"/>
+    <hyperlink ref="C244" r:id="rId475" xr:uid="{84F6D78C-805D-4E9F-BE85-14085C6B2E09}"/>
+    <hyperlink ref="B245" r:id="rId476" xr:uid="{4E170C4C-238C-4183-97CB-71B8352DDAFC}"/>
+    <hyperlink ref="C245" r:id="rId477" xr:uid="{7C856FE3-814A-4EF4-85B8-FF9D8CD1043B}"/>
+    <hyperlink ref="B246" r:id="rId478" xr:uid="{9585953B-32BA-4C98-B97F-E4971AC05045}"/>
+    <hyperlink ref="C246" r:id="rId479" xr:uid="{F004E317-A6EC-49C9-9C3A-D4D0E16AD31C}"/>
+    <hyperlink ref="B247" r:id="rId480" xr:uid="{DB0E1E92-96FD-4D42-BE76-9A347CDBF7C0}"/>
+    <hyperlink ref="C247" r:id="rId481" xr:uid="{2BCA5A85-4422-4DDC-B593-23CB2951759F}"/>
+    <hyperlink ref="B248" r:id="rId482" xr:uid="{660F8C81-57DF-4EAA-B08F-A3DD75DE36A9}"/>
+    <hyperlink ref="C248" r:id="rId483" xr:uid="{891EB9F0-BDD1-4B4E-A3BE-80F9D689BB5F}"/>
+    <hyperlink ref="B249" r:id="rId484" xr:uid="{26440475-1BEF-4A0B-86F2-613BDB3E2053}"/>
+    <hyperlink ref="B250" r:id="rId485" xr:uid="{D25EDEAB-5B13-450B-9D4D-F733DCEDE85A}"/>
+    <hyperlink ref="B251" r:id="rId486" xr:uid="{107E2728-C28B-49E0-BCF1-74D21B885F58}"/>
+    <hyperlink ref="B252" r:id="rId487" xr:uid="{71DB8714-7351-4F94-B015-0D6CECBC2466}"/>
+    <hyperlink ref="B253" r:id="rId488" xr:uid="{14AAC4B2-8E6D-4327-9BD8-DC6D44AEE93F}"/>
+    <hyperlink ref="C253" r:id="rId489" display="https://7132834.app.netsuite.com/app/accounting/transactions/vendbill.nl?id=4065059&amp;fromreport=283&amp;summaryurl=%252Fapp%252Freporting%252Freportrunner.nl%253Fviewasreport%253DT%2526specacct%253DAcctPay%2526openonly%253DT%2526acctid%253D%2526cr%253D283%2526critSpec5%253Dtrandoc%25252Ctrandoc%25252Ckentitymain%25252Cx%25252Cx%25252CIN%2526fieldVals5%253D52229" xr:uid="{9D0C4424-1BFC-4553-85F1-EDBF44919951}"/>
+    <hyperlink ref="B254" r:id="rId490" xr:uid="{C5FBE2F4-C8AD-47C3-B644-60A7CBD587BB}"/>
+    <hyperlink ref="B255" r:id="rId491" xr:uid="{60C297B5-A909-4C32-8AF0-81897A67BB76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId492"/>
 </worksheet>
 </file>